--- a/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
+++ b/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
@@ -456,7 +456,7 @@
         <v>3727053</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>17.87517930679343</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         <v>2204841</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>14.3980636636213</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         <v>-102070</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>-5.747624818116702</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         <v>2306911</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>17.04077926419848</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>-233212</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-10.86151305387024</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="8">
@@ -636,7 +636,7 @@
         <v>-112667</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-18.2531762052731</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>3209953</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>29.07998635304272</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="10">
@@ -698,7 +698,7 @@
         <v>1226341</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>92.4766365359107</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="11">
@@ -729,7 +729,7 @@
         <v>1737803</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>107.6970605533083</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="12">
@@ -754,7 +754,7 @@
         <v>11814476</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>22.33092289169302</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="13">
@@ -785,7 +785,7 @@
         <v>1123</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>2.564278211627164</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
         <v>11815599</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>22.31457429680596</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="15">
@@ -845,7 +845,7 @@
         <v>-85451</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-54.85892209418034</v>
+        <v>-54.9</v>
       </c>
     </row>
     <row r="16">
@@ -876,7 +876,7 @@
         <v>2427830</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>15.33774267454632</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="17">
@@ -907,7 +907,7 @@
         <v>303236</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>748.0290098179486</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>303236</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>748.0290098179486</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19">
@@ -969,7 +969,7 @@
         <v>-454332</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-26.72710972226471</v>
+        <v>-26.7</v>
       </c>
     </row>
     <row r="20">
@@ -1000,7 +1000,7 @@
         <v>224477</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>115.3755615176653</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="21">
@@ -1031,7 +1031,7 @@
         <v>-8488</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>-1.783946582485461</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="22">
@@ -1062,7 +1062,7 @@
         <v>4910561</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>22.85442630354713</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="23">
@@ -1091,7 +1091,7 @@
         <v>690306</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>11.17929980263517</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="24">
@@ -1122,7 +1122,7 @@
         <v>69854</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>2.200420528732193</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="25">
@@ -1153,7 +1153,7 @@
         <v>620452</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>20.67977564790533</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="26">
@@ -1184,7 +1184,7 @@
         <v>811403</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>22.5615337559782</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="27">
@@ -1215,7 +1215,7 @@
         <v>576372</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>39.44970329151352</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="28">
@@ -1244,7 +1244,7 @@
         <v>9395914</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>18.38219008504971</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="29">
@@ -1273,7 +1273,7 @@
         <v>21211513</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>20.38307002450637</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="30">
@@ -1304,7 +1304,7 @@
         <v>4629216</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>136.0538923440413</v>
+        <v>136.1</v>
       </c>
     </row>
     <row r="31">
@@ -1335,7 +1335,7 @@
         <v>-2210708</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-22.57520624934836</v>
+        <v>-22.6</v>
       </c>
     </row>
     <row r="32">
@@ -1366,7 +1366,7 @@
         <v>665840</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>4.459322545162495</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33">
@@ -1397,7 +1397,7 @@
         <v>-358534</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-23.05806479827232</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="34">
@@ -1428,7 +1428,7 @@
         <v>1024374</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>7.658013330544362</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="35">
@@ -1459,7 +1459,7 @@
         <v>293486</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>151.4336575423751</v>
+        <v>151.4</v>
       </c>
     </row>
     <row r="36">
@@ -1490,7 +1490,7 @@
         <v>121296</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>164.571800716379</v>
+        <v>164.6</v>
       </c>
     </row>
     <row r="37">
@@ -1521,7 +1521,7 @@
         <v>103825</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>9.771948648445147</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1552,7 +1552,7 @@
         <v>429094</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>14.98150590854276</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1583,7 +1583,7 @@
         <v>892112</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>26.78134367227593</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="40">
@@ -1608,7 +1608,7 @@
         <v>4924161</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>13.81182292655105</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="41">
@@ -1639,7 +1639,7 @@
         <v>-359</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-12.50435388366423</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="42">
@@ -1668,7 +1668,7 @@
         <v>4923802</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>13.80970388352959</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="43">
@@ -1699,7 +1699,7 @@
         <v>11014300</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>47.50461975666514</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="44">
@@ -1730,7 +1730,7 @@
         <v>46086</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>1369.976218787158</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="45">
@@ -1786,7 +1786,7 @@
         <v>167495</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>22.77817744661928</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="47">
@@ -1815,7 +1815,7 @@
         <v>37807</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>4.285677039938969</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="48">
@@ -1846,7 +1846,7 @@
         <v>115074</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>17.72998724261828</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="49">
@@ -1877,7 +1877,7 @@
         <v>-77267</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-33.14259978124262</v>
+        <v>-33.1</v>
       </c>
     </row>
     <row r="50">
@@ -1908,7 +1908,7 @@
         <v>372581</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>55.43650663754342</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="51">
@@ -1937,7 +1937,7 @@
         <v>12260319</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>48.11988226870471</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="52">
@@ -1966,7 +1966,7 @@
         <v>17184121</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>28.1092415187455</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="53">
@@ -2088,7 +2088,7 @@
         <v>61408</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>37.5038170736176</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="57">
@@ -2119,7 +2119,7 @@
         <v>181602</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>184.0535938703531</v>
+        <v>184.1</v>
       </c>
     </row>
     <row r="58">
@@ -2150,7 +2150,7 @@
         <v>-2078624</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-79.87368529455051</v>
+        <v>-79.90000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -2179,7 +2179,7 @@
         <v>5005026</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>26.05239278142697</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="60">
@@ -2208,7 +2208,7 @@
         <v>628288</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>12.7993741774875</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="61">
@@ -2237,7 +2237,7 @@
         <v>3311680</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>11.0490314114413</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -2266,7 +2266,7 @@
         <v>715712</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>5.523135662359254</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="63">
@@ -2295,7 +2295,7 @@
         <v>4027392</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>9.381077336670657</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="64">
@@ -2324,7 +2324,7 @@
         <v>21211513</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>20.38307002450637</v>
+        <v>20.4</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2392,25 +2392,31 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
       <c r="D2" t="n">
-        <v>2018</v>
+        <v>25159335</v>
       </c>
       <c r="E2" t="n">
-        <v>2018</v>
+        <v>29598572</v>
       </c>
       <c r="F2" t="n">
-        <v>2018</v>
+        <v>142469768</v>
       </c>
       <c r="G2" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.04957858205255329</v>
+        <v>98272831</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>44196937</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -2419,29 +2425,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
+          <t>Revenue from finance sector operations</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>25159335</v>
+        <v>137486</v>
       </c>
       <c r="E3" t="n">
-        <v>29598572</v>
+        <v>161744</v>
       </c>
       <c r="F3" t="n">
-        <v>142469768</v>
+        <v>778540</v>
       </c>
       <c r="G3" t="n">
-        <v>98272831</v>
+        <v>593918</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>44196937</v>
+        <v>184622</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>44.97370895929517</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="4">
@@ -2450,27 +2454,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Revenue from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Total revenue</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
       <c r="D4" t="n">
-        <v>137486</v>
+        <v>25296821</v>
       </c>
       <c r="E4" t="n">
-        <v>161744</v>
+        <v>29760316</v>
       </c>
       <c r="F4" t="n">
-        <v>778540</v>
+        <v>143248308</v>
       </c>
       <c r="G4" t="n">
-        <v>593918</v>
+        <v>98866749</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>184622</v>
+        <v>44381559</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>31.08543603662459</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="5">
@@ -2479,29 +2485,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total revenue</t>
+          <t>Cost of sales</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>25296821</v>
+        <v>21235844</v>
       </c>
       <c r="E5" t="n">
-        <v>29760316</v>
+        <v>24982801</v>
       </c>
       <c r="F5" t="n">
-        <v>143248308</v>
+        <v>120252216</v>
       </c>
       <c r="G5" t="n">
-        <v>98866749</v>
+        <v>82173057</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>44381559</v>
+        <v>38079159</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>44.89027853034796</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="6">
@@ -2510,29 +2516,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
+          <t>Cost of finance sector operations</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>21235844</v>
+        <v>98416</v>
       </c>
       <c r="E6" t="n">
-        <v>24982801</v>
+        <v>115781</v>
       </c>
       <c r="F6" t="n">
-        <v>120252216</v>
+        <v>557302</v>
       </c>
       <c r="G6" t="n">
-        <v>82173057</v>
+        <v>416317</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>38079159</v>
+        <v>140985</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>46.34020004878241</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="7">
@@ -2541,27 +2545,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cost of finance sector operations</t>
+          <t>Total costs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>98416</v>
+        <v>21334260</v>
       </c>
       <c r="E7" t="n">
-        <v>115781</v>
+        <v>25098582</v>
       </c>
       <c r="F7" t="n">
-        <v>557302</v>
+        <v>120809518</v>
       </c>
       <c r="G7" t="n">
-        <v>416317</v>
+        <v>82589374</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>140985</v>
+        <v>38220144</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>33.8648193564039</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="8">
@@ -2570,27 +2574,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total costs</t>
+          <t>Gross profit non-finance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>21334260</v>
+        <v>3923491</v>
       </c>
       <c r="E8" t="n">
-        <v>25098582</v>
+        <v>4615771</v>
       </c>
       <c r="F8" t="n">
-        <v>120809518</v>
+        <v>22217552</v>
       </c>
       <c r="G8" t="n">
-        <v>82589374</v>
+        <v>16099774</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>38220144</v>
+        <v>6117778</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>46.27731407674794</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -2599,27 +2603,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gross profit non-finance</t>
+          <t>Gross profit finance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>3923491</v>
+        <v>39070</v>
       </c>
       <c r="E9" t="n">
-        <v>4615771</v>
+        <v>45963</v>
       </c>
       <c r="F9" t="n">
-        <v>22217552</v>
+        <v>221238</v>
       </c>
       <c r="G9" t="n">
-        <v>16099774</v>
+        <v>177601</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>6117778</v>
+        <v>43637</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>37.9991545222933</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="10">
@@ -2628,27 +2632,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gross profit finance</t>
+          <t>Gross profit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>39070</v>
+        <v>3962561</v>
       </c>
       <c r="E10" t="n">
-        <v>45963</v>
+        <v>4661734</v>
       </c>
       <c r="F10" t="n">
-        <v>221238</v>
+        <v>22438790</v>
       </c>
       <c r="G10" t="n">
-        <v>177601</v>
+        <v>16277375</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>43637</v>
+        <v>6161415</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>24.57024453691139</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="11">
@@ -2657,27 +2661,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gross profit</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Marketing expenses</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
       <c r="D11" t="n">
-        <v>3962561</v>
+        <v>1184557</v>
       </c>
       <c r="E11" t="n">
-        <v>4661734</v>
+        <v>1393567</v>
       </c>
       <c r="F11" t="n">
-        <v>22438790</v>
+        <v>6707793</v>
       </c>
       <c r="G11" t="n">
-        <v>16277375</v>
+        <v>5347579</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>6161415</v>
+        <v>1360214</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>37.8526328723151</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="12">
@@ -2686,29 +2692,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marketing expenses</t>
+          <t>General administrative expenses</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>1184557</v>
+        <v>710489</v>
       </c>
       <c r="E12" t="n">
-        <v>1393567</v>
+        <v>835851</v>
       </c>
       <c r="F12" t="n">
-        <v>6707793</v>
+        <v>4023287</v>
       </c>
       <c r="G12" t="n">
-        <v>5347579</v>
+        <v>3229364</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1360214</v>
+        <v>793923</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>25.43607116416606</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="13">
@@ -2717,29 +2723,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>General administrative expenses</t>
+          <t>Research and development expenses</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>710489</v>
+        <v>49664</v>
       </c>
       <c r="E13" t="n">
-        <v>835851</v>
+        <v>58427</v>
       </c>
       <c r="F13" t="n">
-        <v>4023287</v>
+        <v>281234</v>
       </c>
       <c r="G13" t="n">
-        <v>3229364</v>
+        <v>234326</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>793923</v>
+        <v>46908</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>24.5845002297666</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2748,29 +2754,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Research and development expenses</t>
+          <t>Other operating income</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>49664</v>
+        <v>995477</v>
       </c>
       <c r="E14" t="n">
-        <v>58427</v>
+        <v>1171124</v>
       </c>
       <c r="F14" t="n">
-        <v>281234</v>
+        <v>5637086</v>
       </c>
       <c r="G14" t="n">
-        <v>234326</v>
+        <v>2508489</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>46908</v>
+        <v>3128597</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>20.01826515196777</v>
+        <v>124.7</v>
       </c>
     </row>
     <row r="15">
@@ -2779,29 +2785,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Other operating income</t>
+          <t>Other operating expenses</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>995477</v>
+        <v>1284885</v>
       </c>
       <c r="E15" t="n">
-        <v>1171124</v>
+        <v>1511596</v>
       </c>
       <c r="F15" t="n">
-        <v>5637086</v>
+        <v>7275918</v>
       </c>
       <c r="G15" t="n">
-        <v>2508489</v>
+        <v>2239369</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>3128597</v>
+        <v>5036549</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>124.7203794794396</v>
+        <v>224.9</v>
       </c>
     </row>
     <row r="16">
@@ -2810,29 +2816,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Other operating expenses</t>
+          <t>the equity method</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>1284885</v>
+        <v>560826</v>
       </c>
       <c r="E16" t="n">
-        <v>1511596</v>
+        <v>659780</v>
       </c>
       <c r="F16" t="n">
-        <v>7275918</v>
+        <v>3175787</v>
       </c>
       <c r="G16" t="n">
-        <v>2239369</v>
+        <v>2691404</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>5036549</v>
+        <v>484383</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>224.9092936447722</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2841,29 +2847,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>the equity method</t>
+          <t>Operating profit</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>560826</v>
+        <v>2289269</v>
       </c>
       <c r="E17" t="n">
-        <v>659780</v>
+        <v>2693197</v>
       </c>
       <c r="F17" t="n">
-        <v>3175787</v>
+        <v>12963431</v>
       </c>
       <c r="G17" t="n">
-        <v>2691404</v>
+        <v>10426630</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>484383</v>
+        <v>2536801</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>17.9974095304904</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="18">
@@ -2872,29 +2878,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Operating profit</t>
+          <t>Gains from investment activities</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>2289269</v>
+        <v>62147</v>
       </c>
       <c r="E18" t="n">
-        <v>2693197</v>
+        <v>73112</v>
       </c>
       <c r="F18" t="n">
-        <v>12963431</v>
+        <v>351917</v>
       </c>
       <c r="G18" t="n">
-        <v>10426630</v>
+        <v>148192</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>2536801</v>
+        <v>203725</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>24.33001842397783</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="19">
@@ -2903,29 +2909,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gains from investment activities</t>
+          <t>Losses from investment activities</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>62147</v>
+        <v>34014</v>
       </c>
       <c r="E19" t="n">
-        <v>73112</v>
+        <v>40016</v>
       </c>
       <c r="F19" t="n">
-        <v>351917</v>
+        <v>192612</v>
       </c>
       <c r="G19" t="n">
-        <v>148192</v>
+        <v>63549</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>203725</v>
+        <v>129063</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>137.4736827898942</v>
+        <v>203.1</v>
       </c>
     </row>
     <row r="20">
@@ -2934,29 +2940,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Losses from investment activities</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>27</v>
-      </c>
+          <t>Operating profit before financial income/(expense)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>34014</v>
+        <v>2317402</v>
       </c>
       <c r="E20" t="n">
-        <v>40016</v>
+        <v>2726293</v>
       </c>
       <c r="F20" t="n">
-        <v>192612</v>
+        <v>13122736</v>
       </c>
       <c r="G20" t="n">
-        <v>63549</v>
+        <v>10511273</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>129063</v>
+        <v>2611463</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>203.0921021573904</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="21">
@@ -2965,27 +2969,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Operating profit before financial income/(expense)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Financial income</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>28</v>
+      </c>
       <c r="D21" t="n">
-        <v>2317402</v>
+        <v>2188432</v>
       </c>
       <c r="E21" t="n">
-        <v>2726293</v>
+        <v>2574570</v>
       </c>
       <c r="F21" t="n">
-        <v>13122736</v>
+        <v>12392436</v>
       </c>
       <c r="G21" t="n">
-        <v>10511273</v>
+        <v>6208953</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>2611463</v>
+        <v>6183483</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>24.84440276643942</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2994,29 +3000,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Financial income</t>
+          <t>Financial expense</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>2188432</v>
+        <v>2971092</v>
       </c>
       <c r="E22" t="n">
-        <v>2574570</v>
+        <v>3495326</v>
       </c>
       <c r="F22" t="n">
-        <v>12392436</v>
+        <v>16824401</v>
       </c>
       <c r="G22" t="n">
-        <v>6208953</v>
+        <v>8061172</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>6183483</v>
+        <v>8763229</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>99.58978591076466</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="23">
@@ -3025,29 +3031,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Financial expense</t>
+          <t>Profit before tax</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>2971092</v>
+        <v>1534742</v>
       </c>
       <c r="E23" t="n">
-        <v>3495326</v>
+        <v>1805537</v>
       </c>
       <c r="F23" t="n">
-        <v>16824401</v>
+        <v>8690771</v>
       </c>
       <c r="G23" t="n">
-        <v>8061172</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>8763229</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>108.7091182274736</v>
+        <v>8659054</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>31717</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
@@ -3056,29 +3062,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Profit before tax</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>4</v>
-      </c>
+          <t>Tax income/(expense)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>1534742</v>
+        <v>46917</v>
       </c>
       <c r="E24" t="n">
-        <v>1805537</v>
+        <v>55196</v>
       </c>
       <c r="F24" t="n">
-        <v>8690771</v>
+        <v>265678</v>
       </c>
       <c r="G24" t="n">
-        <v>8659054</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>31717</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <v>0.3662871255913175</v>
+        <v>761627</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>-495949</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>-65.09999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3087,27 +3091,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tax income/(expense)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Current income tax expense</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
       <c r="D25" t="n">
-        <v>46917</v>
+        <v>124801</v>
       </c>
       <c r="E25" t="n">
-        <v>55196</v>
+        <v>146822</v>
       </c>
       <c r="F25" t="n">
-        <v>265678</v>
+        <v>706712</v>
       </c>
       <c r="G25" t="n">
-        <v>761627</v>
+        <v>788821</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-495949</v>
+        <v>-82109</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-65.11704548289386</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="26">
@@ -3116,29 +3122,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Current income tax expense</t>
+          <t>Deferred tax income</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>124801</v>
+        <v>77884</v>
       </c>
       <c r="E26" t="n">
-        <v>146822</v>
+        <v>91626</v>
       </c>
       <c r="F26" t="n">
-        <v>706712</v>
+        <v>441034</v>
       </c>
       <c r="G26" t="n">
-        <v>788821</v>
+        <v>27194</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-82109</v>
+        <v>413840</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-10.40907886580099</v>
+        <v>1521.8</v>
       </c>
     </row>
     <row r="27">
@@ -3147,29 +3153,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Deferred tax income</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>17</v>
-      </c>
+          <t>Profit for the period</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>77884</v>
+        <v>1487825</v>
       </c>
       <c r="E27" t="n">
-        <v>91626</v>
+        <v>1750341</v>
       </c>
       <c r="F27" t="n">
-        <v>441034</v>
+        <v>8425093</v>
       </c>
       <c r="G27" t="n">
-        <v>27194</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>413840</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>1521.806280797235</v>
+        <v>7897427</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>527666</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="28">
@@ -3178,27 +3182,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Non-controlling interests</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
       <c r="D28" t="n">
-        <v>1487825</v>
+        <v>510016</v>
       </c>
       <c r="E28" t="n">
-        <v>1750341</v>
+        <v>600005</v>
       </c>
       <c r="F28" t="n">
-        <v>8425093</v>
+        <v>2888065</v>
       </c>
       <c r="G28" t="n">
-        <v>7897427</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>527666</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>6.681492592460811</v>
+        <v>2988687</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>-100622</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>-3.4</v>
       </c>
     </row>
     <row r="29">
@@ -3207,60 +3213,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Non-controlling interests</t>
+          <t>Equity holders of the parent</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>510016</v>
+        <v>977809</v>
       </c>
       <c r="E29" t="n">
-        <v>600005</v>
+        <v>1150336</v>
       </c>
       <c r="F29" t="n">
-        <v>2888065</v>
+        <v>5537028</v>
       </c>
       <c r="G29" t="n">
-        <v>2988687</v>
-      </c>
-      <c r="H29" s="4" t="n">
-        <v>-100622</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>-3.366762728917414</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Equity holders of the parent</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>977809</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1150336</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5537028</v>
-      </c>
-      <c r="G30" t="n">
         <v>4908740</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H29" s="2" t="n">
         <v>628288</v>
       </c>
-      <c r="I30" s="2" t="n">
-        <v>12.7993741774875</v>
+      <c r="I29" s="2" t="n">
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3325,7 @@
         <v>527666</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>6.681492592460811</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3">
@@ -3381,7 +3356,7 @@
         <v>-495949</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-65.11704548289386</v>
+        <v>-65.09999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3412,7 +3387,7 @@
         <v>484383</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>17.9974095304904</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -3443,7 +3418,7 @@
         <v>533806</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>33.79609874073277</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="6">
@@ -3474,7 +3449,7 @@
         <v>-115575</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-63.58554821388292</v>
+        <v>-63.6</v>
       </c>
     </row>
     <row r="7">
@@ -3505,7 +3480,7 @@
         <v>330333</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>431.7062651925037</v>
+        <v>431.7</v>
       </c>
     </row>
     <row r="8">
@@ -3536,7 +3511,7 @@
         <v>1363833</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>158.0555626377651</v>
+        <v>158.1</v>
       </c>
     </row>
     <row r="9">
@@ -3565,7 +3540,7 @@
         <v>-154440</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-96.92055702335155</v>
+        <v>-96.90000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3594,7 +3569,7 @@
         <v>1236079</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>135.687030861338</v>
+        <v>135.7</v>
       </c>
     </row>
     <row r="11">
@@ -3623,7 +3598,7 @@
         <v>5664913</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>290.4690339359184</v>
+        <v>290.5</v>
       </c>
     </row>
     <row r="12">
@@ -3652,7 +3627,7 @@
         <v>4428834</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>426.1419859403475</v>
+        <v>426.1</v>
       </c>
     </row>
     <row r="13">
@@ -3683,7 +3658,7 @@
         <v>185260</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>6910.108168593808</v>
+        <v>6910.1</v>
       </c>
     </row>
     <row r="14">
@@ -3714,7 +3689,7 @@
         <v>36813</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>216.8148889805053</v>
+        <v>216.8</v>
       </c>
     </row>
     <row r="15">
@@ -3810,7 +3785,7 @@
         <v>2522248</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>26.03780437208349</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -3841,7 +3816,7 @@
         <v>1576344</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>36.17789581479123</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="20">
@@ -3870,7 +3845,7 @@
         <v>-330759</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-38.23878619579807</v>
+        <v>-38.2</v>
       </c>
     </row>
     <row r="21">
@@ -3901,7 +3876,7 @@
         <v>487750</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>81.16221293703209</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="22">
@@ -3930,7 +3905,7 @@
         <v>1764413</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>34.83099177379526</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="23">
@@ -3961,7 +3936,7 @@
         <v>1333034</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>29.37586797636063</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="24">
@@ -3990,7 +3965,7 @@
         <v>363068</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>28.73796674618918</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="25">
@@ -4021,7 +3996,7 @@
         <v>1510009</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>2175.962245118525</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="26">
@@ -4050,7 +4025,7 @@
         <v>-3727</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-28.57909669503873</v>
+        <v>-28.6</v>
       </c>
     </row>
     <row r="27">
@@ -4079,7 +4054,7 @@
         <v>13959</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1116.72</v>
+        <v>1116.7</v>
       </c>
     </row>
     <row r="28">
@@ -4131,7 +4106,7 @@
         <v>644020</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>845.1151499245457</v>
+        <v>845.1</v>
       </c>
     </row>
     <row r="30">
@@ -4162,7 +4137,7 @@
         <v>644020</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>845.1151499245457</v>
+        <v>845.1</v>
       </c>
     </row>
     <row r="31">
@@ -4191,7 +4166,7 @@
         <v>3092547</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>90.11256541985406</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4220,7 +4195,7 @@
         <v>1093754</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>47.57493759278438</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="33">
@@ -4251,7 +4226,7 @@
         <v>-390449</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>-0.7528935956830519</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="34">
@@ -4282,7 +4257,7 @@
         <v>1023847</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>2.14277541640777</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="35">
@@ -4311,7 +4286,7 @@
         <v>48033</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>81.75412319370926</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="36">
@@ -4340,7 +4315,7 @@
         <v>1220614</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>61.44146692714141</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="37">
@@ -4369,7 +4344,7 @@
         <v>334459</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>29.45991463064453</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="38">
@@ -4398,7 +4373,7 @@
         <v>137465</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>5311.630602782071</v>
+        <v>5311.6</v>
       </c>
     </row>
     <row r="39">
@@ -4427,7 +4402,7 @@
         <v>71456</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>2761.051004636785</v>
+        <v>2761.1</v>
       </c>
     </row>
     <row r="40">
@@ -4479,7 +4454,7 @@
         <v>1235009</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>125.4757630343984</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="42">
@@ -4508,7 +4483,7 @@
         <v>4428834</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>426.1419859403475</v>
+        <v>426.1</v>
       </c>
     </row>
     <row r="43">
@@ -4537,7 +4512,7 @@
         <v>-102831</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>-2.811651273324133</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="44">
@@ -4566,7 +4541,7 @@
         <v>3657317</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>22.86550676843488</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="45">
@@ -4597,7 +4572,7 @@
         <v>3554486</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>18.08693834479616</v>
+        <v>18.1</v>
       </c>
     </row>
   </sheetData>

--- a/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
+++ b/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
@@ -1,56 +1,442 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Demo FS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A670389-41EF-45BA-B6B0-1FBE045A5691}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CBS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CIS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CCF" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CBS" sheetId="1" r:id="rId1"/>
+    <sheet name="CIS" sheetId="2" r:id="rId2"/>
+    <sheet name="CCF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>EUR-2018</t>
+  </si>
+  <si>
+    <t>USD-2018</t>
+  </si>
+  <si>
+    <t>TL-2018</t>
+  </si>
+  <si>
+    <t>TL-2017</t>
+  </si>
+  <si>
+    <t>TL-Diff</t>
+  </si>
+  <si>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Financial assets</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Related parties</t>
+  </si>
+  <si>
+    <t>Third parties</t>
+  </si>
+  <si>
+    <t>Receivables from finance sector operations</t>
+  </si>
+  <si>
+    <t>Derivative instruments</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other receivables</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Assets held for sale</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Investment properties</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other intangible assets</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Other non-current assets</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Short term borrowings</t>
+  </si>
+  <si>
+    <t>Short term portion of long term borrowings</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Current income tax liabilities</t>
+  </si>
+  <si>
+    <t>Short term provisions</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Other current liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities related to assets held for sale</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Long term borrowings</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Long term provisions</t>
+  </si>
+  <si>
+    <t>Long term provisions for employee benefits</t>
+  </si>
+  <si>
+    <t>Other long term provisions</t>
+  </si>
+  <si>
+    <t>Other non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Paid-in share capital</t>
+  </si>
+  <si>
+    <t>Adjustment to share capital</t>
+  </si>
+  <si>
+    <t>Share premium</t>
+  </si>
+  <si>
+    <t>Other comprehensive income/expense not to be reclassified to profit or loss</t>
+  </si>
+  <si>
+    <t>Other comprehensive income/expense to be reclassified to profit or loss</t>
+  </si>
+  <si>
+    <t>Restricted reserves</t>
+  </si>
+  <si>
+    <t>Prior years’ income</t>
+  </si>
+  <si>
+    <t>Profit for the period</t>
+  </si>
+  <si>
+    <t>Equity holders of the parent</t>
+  </si>
+  <si>
+    <t>Non-controlling interests</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Total liabilities and equity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Revenue from finance sector operations</t>
+  </si>
+  <si>
+    <t>Total revenue</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Cost of finance sector operations</t>
+  </si>
+  <si>
+    <t>Total costs</t>
+  </si>
+  <si>
+    <t>Gross profit non-finance</t>
+  </si>
+  <si>
+    <t>Gross profit finance</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Marketing expenses</t>
+  </si>
+  <si>
+    <t>General administrative expenses</t>
+  </si>
+  <si>
+    <t>Research and development expenses</t>
+  </si>
+  <si>
+    <t>Other operating income</t>
+  </si>
+  <si>
+    <t>Other operating expenses</t>
+  </si>
+  <si>
+    <t>the equity method</t>
+  </si>
+  <si>
+    <t>Operating profit</t>
+  </si>
+  <si>
+    <t>Gains from investment activities</t>
+  </si>
+  <si>
+    <t>Losses from investment activities</t>
+  </si>
+  <si>
+    <t>Operating profit before financial income/(expense)</t>
+  </si>
+  <si>
+    <t>Financial income</t>
+  </si>
+  <si>
+    <t>Financial expense</t>
+  </si>
+  <si>
+    <t>Profit before tax</t>
+  </si>
+  <si>
+    <t>Tax income/(expense)</t>
+  </si>
+  <si>
+    <t>Current income tax expense</t>
+  </si>
+  <si>
+    <t>Deferred tax income</t>
+  </si>
+  <si>
+    <t>Tax expenses</t>
+  </si>
+  <si>
+    <t>Undistributed profits of investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Depreciation and amortisation</t>
+  </si>
+  <si>
+    <t>Adjustments for provisions</t>
+  </si>
+  <si>
+    <t>Adjustments for impairment loss/(reversal of impairment loss)</t>
+  </si>
+  <si>
+    <t>Interest (income)/expenses, net</t>
+  </si>
+  <si>
+    <t>Fair value losses/(gains) on derivative instruments</t>
+  </si>
+  <si>
+    <t>Unrealised foreign exchange losses/(gains)</t>
+  </si>
+  <si>
+    <t>Exchange (gains)/losses on borrowings, net</t>
+  </si>
+  <si>
+    <t>Exchange (gains)/losses on cash and cash equivalents, net</t>
+  </si>
+  <si>
+    <t>Gain from bargain purchases</t>
+  </si>
+  <si>
+    <t>Losses/(gains) on disposal of non-current assets</t>
+  </si>
+  <si>
+    <t>Gain on sale of interest in a subsidiary</t>
+  </si>
+  <si>
+    <t>Losses on disposal of financial assets</t>
+  </si>
+  <si>
+    <t>Losses/(gains) on exchange transactions</t>
+  </si>
+  <si>
+    <t>Changes in working capital</t>
+  </si>
+  <si>
+    <t>Income taxes refund/(paid)</t>
+  </si>
+  <si>
+    <t>Dividend payments received from Joint Ventures, net</t>
+  </si>
+  <si>
+    <t>Total cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Cash outflows from purchases of property, plant and equipment and intangible assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of property, plant and equipment and intangible assets</t>
+  </si>
+  <si>
+    <t>Cash outflows from capital increases of Joint Ventures</t>
+  </si>
+  <si>
+    <t>Cash outflows from acquisition of interest/capital increase in financial assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of interest/capital decrease in financial assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of interest in a subsidiary</t>
+  </si>
+  <si>
+    <t>Other cash inflows/(outflows)</t>
+  </si>
+  <si>
+    <t>Cash outflows due to business combinations, net 3,</t>
+  </si>
+  <si>
+    <t>Total cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>Cash inflows from borrowings</t>
+  </si>
+  <si>
+    <t>Cash outflows from repayments of borrowings</t>
+  </si>
+  <si>
+    <t>Cash inflows/(outflows) from derivative instruments, net</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Transactions with non-controlling interests</t>
+  </si>
+  <si>
+    <t>Contribution of non-controlling interests to capital increases</t>
+  </si>
+  <si>
+    <t>Total cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Effect of exchange rate changes on cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Net increase/(decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the beginning of the period</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the end of the period</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF9AA2"/>
+        <fgColor rgb="FFFF9AA2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFDAC1"/>
+        <fgColor rgb="FFFFDAC1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2F0CB"/>
+        <fgColor rgb="FFE2F0CB"/>
       </patternFill>
     </fill>
   </fills>
@@ -63,29 +449,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -373,4209 +776,3844 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>4077221</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>4671727</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>24577490</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>20850437</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>3727053</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="I2" s="2">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Financial assets</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9019</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>10334</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>54364</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Trade receivables</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2906154</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3329905</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>17518296</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>15313455</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>2204841</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>14.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Related parties</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>277670</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>318157</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1673794</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1775864</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>-102070</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>-5.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2628484</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3011748</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>15844502</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>13537591</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>2306911</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Receivables from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>317506</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>363803</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1913929</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2147141</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>-233212</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>-10.9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>83706</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>95911</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>504579</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>617246</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>-112667</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>-18.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Inventories</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2363688</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2708341</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>14248311</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>11038358</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>3209953</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>29.1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Other receivables</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>423432</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>485174</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2552450</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1326109</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>1226341</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>92.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Other current assets</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
         <v>21</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>555973</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>637040</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3351406</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1613603</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>1737803</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>107.7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>10736699</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>12302235</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>64720825</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>52906349</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>11814476</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>22.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Assets held for sale</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>7451</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>8538</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>44917</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>43794</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="4">
         <v>1123</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total current assets</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
         <v>10744150</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>12310773</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>64765742</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>52950143</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>11815599</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>22.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Financial assets</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>11665</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>13365</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>70314</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>155765</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>-85451</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2">
         <v>-54.9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Investments accounted for using the equity method</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3028691</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3470310</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>18256952</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>15829122</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>2427830</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="2">
         <v>15.3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Trade receivables</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>57030</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>65345</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>343774</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>40538</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>303236</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2">
         <v>748</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
         <v>8</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>57030</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>65345</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>343774</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>40538</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>303236</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2">
         <v>748</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Receivables from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
         <v>9</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>206629</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>236758</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>1245560</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1699892</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>-454332</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2">
         <v>-26.7</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>69515</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>79652</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>419039</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>194562</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>224477</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2">
         <v>115.4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Investment properties</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>77523</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>88827</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>467311</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>475799</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="4">
         <v>-8488</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="4">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Property, plant and equipment</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>13</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>4379034</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>5017548</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>26396819</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>21486258</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>4910561</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="2">
         <v>22.9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Intangible assets</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
         <v>1138879</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1304941</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>6865165</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>6174859</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>690306</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Goodwill</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>14</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>538226</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>616706</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3244429</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3174575</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="4">
         <v>69854</v>
       </c>
-      <c r="I24" s="4" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="I24" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Other intangible assets</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>600653</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>688235</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>3620736</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3000284</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>620452</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="2">
         <v>20.7</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Deferred tax assets</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>17</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>731221</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>837842</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>4407803</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3596400</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>811403</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2">
         <v>22.6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Other non-current assets</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>21</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>337990</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>387273</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>2037402</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1461030</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>576372</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="2">
         <v>39.4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total non-current assets</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
         <v>10038177</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>11501861</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>60510139</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>51114225</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>9395914</v>
       </c>
-      <c r="I28" s="2" t="n">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="I28" s="2">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
         <v>20782327</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>23812634</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>125275881</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>104064368</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>21211513</v>
       </c>
-      <c r="I29" s="2" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="I29" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Short term borrowings</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>16</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>1332399</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>1526679</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>8031703</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3402487</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>4629216</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="2">
         <v>136.1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Short term portion of long term borrowings</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>16</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1257785</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1441185</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>7581929</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>9792637</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>-2210708</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="2">
         <v>-22.6</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Trade payables</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2587468</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2964751</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>15597256</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>14931416</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="4">
         <v>665840</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Related parties</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>198471</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>227411</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1196384</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1554918</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>-358534</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="2">
         <v>-23.1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2388997</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>2737340</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>14400872</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>13376498</v>
       </c>
-      <c r="H34" s="3" t="n">
+      <c r="H34" s="3">
         <v>1024374</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>80838</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>92625</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>487291</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>193805</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>293486</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2">
         <v>151.4</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Current income tax liabilities</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
         <v>17</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>32349</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>37066</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>195000</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>73704</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>121296</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="2">
         <v>164.6</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Short term provisions</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
         <v>19</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>193481</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>221693</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1166305</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1062480</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="3">
         <v>103825</v>
       </c>
-      <c r="I37" s="3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="I37" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Other payables</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
         <v>20</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>546326</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>625986</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>3293252</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>2864158</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>429094</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Other current liabilities</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
         <v>21</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>700599</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>802754</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>4223207</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3331095</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>892112</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2">
         <v>26.8</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6731245</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>7712739</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>40575943</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>35651782</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2">
         <v>4924161</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Liabilities related to assets held for sale</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41">
         <v>23</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>417</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>477</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>2512</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>2871</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="2">
         <v>-359</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="2">
         <v>-12.5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42">
         <v>6731662</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>7713216</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>40578455</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>35654653</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>4923802</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Long term borrowings</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43">
         <v>16</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>5673531</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>6500797</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>34200045</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>23185745</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="2">
         <v>11014300</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="2">
         <v>47.5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
         <v>10</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>8203</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>9400</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>49450</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>3364</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2">
         <v>46086</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2">
         <v>1370</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Other payables</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
         <v>20</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>103193</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>118240</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>622050</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Deferred tax liabilities</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
         <v>17</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>149772</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>171611</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>902826</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>735331</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>167495</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="2">
         <v>22.8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Long term provisions</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47">
         <v>152617</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>174871</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>919978</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>882171</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="4">
         <v>37807</v>
       </c>
-      <c r="I47" s="4" t="n">
+      <c r="I47" s="4">
         <v>4.3</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Long term provisions for employee benefits</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48">
         <v>18</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>126760</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>145243</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>764110</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>649036</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2">
         <v>115074</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="2">
         <v>17.7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Other long term provisions</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49">
         <v>19</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>25857</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>29628</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>155868</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>233135</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>-77267</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="2">
         <v>-33.1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Other non-current liabilities</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
         <v>21</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>173302</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>198572</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>1044667</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>672086</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>372581</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="2">
         <v>55.4</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total non-current liabilities</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51">
         <v>6260618</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>7173491</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>37739016</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>25478697</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="2">
         <v>12260319</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="2">
         <v>48.1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total liabilities</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52">
         <v>12992280</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>14886707</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>78317471</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>61133350</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="2">
         <v>17184121</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="2">
         <v>28.1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Paid-in share capital</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53">
         <v>22</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>420686</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>482027</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>2535898</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>2535898</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="4">
         <v>0</v>
       </c>
-      <c r="I53" s="4" t="n">
+      <c r="I53" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Adjustment to share capital</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54">
         <v>22</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>160466</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>183864</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>967288</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>967288</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="H54" s="4">
         <v>0</v>
       </c>
-      <c r="I54" s="4" t="n">
+      <c r="I54" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Share premium</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55">
         <v>1540</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>1765</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>9286</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>9286</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="H55" s="4">
         <v>0</v>
       </c>
-      <c r="I55" s="4" t="n">
+      <c r="I55" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Other comprehensive income/expense not to be reclassified to profit or loss</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56">
         <v>22</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>37350</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>42796</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>225146</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>163738</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="2">
         <v>61408</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="2">
         <v>37.5</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Other comprehensive income/expense to be reclassified to profit or loss</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57">
         <v>22</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>46495</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>53274</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>280270</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>98668</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="2">
         <v>181602</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="2">
         <v>184.1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Restricted reserves</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58">
         <v>22</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>86889</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>99558</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>523765</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>2602389</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="2">
         <v>-2078624</v>
       </c>
-      <c r="I58" s="2" t="n">
-        <v>-79.90000000000001</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="I58" s="2">
+        <v>-79.900000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Prior years’ income</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59">
         <v>4017321</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>4603093</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>24216413</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>19211387</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="2">
         <v>5005026</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="2">
         <v>26.1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60">
         <v>918551</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>1052487</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>5537028</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>4908740</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2">
         <v>628288</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="2">
         <v>12.8</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Equity holders of the parent</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61">
         <v>5521608</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>6326724</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>33284262</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>29972582</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="2">
         <v>3311680</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Non-controlling interests</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62">
         <v>2268439</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>2599203</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>13674148</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>12958436</v>
       </c>
-      <c r="H62" s="3" t="n">
+      <c r="H62" s="3">
         <v>715712</v>
       </c>
-      <c r="I62" s="3" t="n">
+      <c r="I62" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total equity</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63">
         <v>7790047</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>8925927</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>46958410</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>42931018</v>
       </c>
-      <c r="H63" s="3" t="n">
+      <c r="H63" s="3">
         <v>4027392</v>
       </c>
-      <c r="I63" s="3" t="n">
+      <c r="I63" s="3">
         <v>9.4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total liabilities and equity</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64">
         <v>20782327</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>23812634</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>125275881</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>104064368</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="2">
         <v>21211513</v>
       </c>
-      <c r="I64" s="2" t="n">
-        <v>20.4</v>
+      <c r="I64" s="2">
+        <v>20.399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>25159335</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>29598572</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>142469768</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>98272831</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>44196937</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Revenue from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
         <v>137486</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>161744</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>778540</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>593918</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>184622</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>31.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total revenue</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>25296821</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>29760316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>143248308</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>98866749</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>44381559</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>44.9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>21235844</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>24982801</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>120252216</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>82173057</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>38079159</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>46.3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cost of finance sector operations</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
         <v>98416</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>115781</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>557302</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>416317</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>140985</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>33.9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total costs</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
         <v>21334260</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>25098582</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>120809518</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>82589374</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>38220144</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>46.3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gross profit non-finance</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
         <v>3923491</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>4615771</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>22217552</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>16099774</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>6117778</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gross profit finance</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
         <v>39070</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>45963</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>221238</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>177601</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>43637</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>24.6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gross profit</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
         <v>3962561</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4661734</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>22438790</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>16277375</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>6161415</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>37.9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Marketing expenses</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
         <v>25</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1184557</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1393567</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>6707793</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>5347579</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>1360214</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>25.4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General administrative expenses</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>710489</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>835851</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>4023287</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3229364</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>793923</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>24.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Research and development expenses</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
         <v>25</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>49664</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>58427</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>281234</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>234326</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>46908</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Other operating income</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
         <v>26</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>995477</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1171124</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>5637086</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>2508489</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>3128597</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>124.7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Other operating expenses</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
         <v>26</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1284885</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1511596</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>7275918</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2239369</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>5036549</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2">
         <v>224.9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>the equity method</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>560826</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>659780</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>3175787</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>2691404</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>484383</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Operating profit</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2289269</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>2693197</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>12963431</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>10426630</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>2536801</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2">
         <v>24.3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gains from investment activities</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
         <v>27</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>62147</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>73112</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>351917</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>148192</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>203725</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2">
         <v>137.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Losses from investment activities</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19">
         <v>27</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>34014</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>40016</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>192612</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>63549</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>129063</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2">
         <v>203.1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Operating profit before financial income/(expense)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
         <v>2317402</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>2726293</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>13122736</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>10511273</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>2611463</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2">
         <v>24.8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Financial income</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21">
         <v>28</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2188432</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>2574570</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>12392436</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>6208953</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>6183483</v>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="I21" s="2">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Financial expense</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
         <v>28</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2971092</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>3495326</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>16824401</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>8061172</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>8763229</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="2">
         <v>108.7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Profit before tax</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1534742</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1805537</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>8690771</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>8659054</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="4">
         <v>31717</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Tax income/(expense)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
         <v>46917</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>55196</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>265678</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>761627</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>-495949</v>
       </c>
-      <c r="I24" s="2" t="n">
-        <v>-65.09999999999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="I24" s="2">
+        <v>-65.099999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Current income tax expense</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25">
         <v>17</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>124801</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>146822</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>706712</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>788821</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>-82109</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="2">
         <v>-10.4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Deferred tax income</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
         <v>17</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>77884</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>91626</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>441034</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>27194</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>413840</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2">
         <v>1521.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
         <v>1487825</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1750341</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>8425093</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>7897427</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="3">
         <v>527666</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Non-controlling interests</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>510016</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>600005</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2888065</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2988687</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="4">
         <v>-100622</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="4">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Equity holders of the parent</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>977809</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>1150336</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>5537028</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>4908740</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>628288</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="2">
         <v>12.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
         <v>1487825</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1750341</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8425093</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>7897427</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>527666</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tax expenses</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>46917</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>55196</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>265678</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>761627</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>-495949</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>-65.09999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="I3" s="2">
+        <v>-65.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Undistributed profits of investments accounted for using the equity method</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>560826</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>659780</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3175787</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2691404</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>484383</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortisation</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>373196</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>439044</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2113296</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1579490</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>533806</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="I5" s="2">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Adjustments for provisions</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>11688</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>13751</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>66188</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>181763</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>-115575</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>-63.6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Adjustments for impairment loss/(reversal of impairment loss)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>71849</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>84524</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>406851</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>76518</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>330333</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>431.7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Interest (income)/expenses, net</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>393225</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>462607</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2226715</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>862882</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>1363833</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>158.1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fair value losses/(gains) on derivative instruments</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
         <v>867</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1019</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4907</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>159347</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>-154440</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <v>-96.90000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="I9" s="2">
+        <v>-96.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unrealised foreign exchange losses/(gains)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
         <v>379158</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>446059</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2147057</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>910978</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>1236079</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>135.7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="I10" s="2">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Exchange (gains)/losses on borrowings, net</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11">
         <v>1344796</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1582079</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>7615177</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1950264</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>5664913</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>290.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Exchange (gains)/losses on cash and cash equivalents, net</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12">
         <v>965638</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1136020</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>5468120</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1039286</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>4428834</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>426.1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gain from bargain purchases</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>33189</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>39045</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>187941</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>2681</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>185260</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2">
         <v>6910.1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Losses/(gains) on disposal of non-current assets</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>9499</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>11175</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>53792</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>16979</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>36813</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>216.8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Gain on sale of interest in a subsidiary</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>4861</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>5718</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>27525</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Losses on disposal of financial assets</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
         <v>27</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1446</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1702</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>8191</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Losses/(gains) on exchange transactions</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17">
         <v>27</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>32099</v>
       </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2156062</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>2536487</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>12209117</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>9686869</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>2522248</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Changes in working capital</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19">
         <v>36</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1047832</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1232714</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>5933546</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>4357202</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>1576344</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="I19" s="2">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Income taxes refund/(paid)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
         <v>94341</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>110987</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>534224</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>864983</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>-330759</v>
       </c>
-      <c r="I20" s="2" t="n">
-        <v>-38.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="I20" s="2">
+        <v>-38.200000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Dividend payments received from Joint Ventures, net</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>192259</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>226183</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1088707</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>600957</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>487750</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="2">
         <v>81.2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total cash flows from operating activities</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22">
         <v>1206148</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1418969</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>6830054</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>5065641</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>1764413</v>
       </c>
-      <c r="I22" s="2" t="n">
-        <v>34.8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="I22" s="2">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cash outflows from purchases of property, plant and equipment and intangible assets</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1036765</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1219697</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>5870888</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>4537854</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>1333034</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2">
         <v>29.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of property, plant and equipment and intangible assets</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24">
         <v>287220</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>337899</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1626442</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>1263374</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>363068</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="2">
         <v>28.7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Cash outflows from capital increases of Joint Ventures</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>278914</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>328126</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1579404</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>69395</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>1510009</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="2">
         <v>2176</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cash outflows from acquisition of interest/capital increase in financial assets</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26">
         <v>1645</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1935</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>9314</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>13041</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>-3727</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2">
         <v>-28.6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of interest/capital decrease in financial assets</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27">
         <v>2686</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>3160</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>15209</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1250</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>13959</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="2">
         <v>1116.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of interest in a subsidiary</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28">
         <v>2430</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>2859</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>13762</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Other cash inflows/(outflows)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29">
         <v>127188</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>149629</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>720225</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>76205</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>644020</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="2">
         <v>845.1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Cash outflows due to business combinations, net 3,</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30">
         <v>20</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>127188</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>149629</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>720225</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>76205</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>644020</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="2">
         <v>845.1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total cash flows from investing activities</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31">
         <v>1152176</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1355469</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>6524418</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3431871</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>3092547</v>
       </c>
-      <c r="I31" s="2" t="n">
-        <v>90.09999999999999</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="I31" s="2">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Dividends paid</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32">
         <v>599143</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>704859</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3392767</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2299013</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>1093754</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="2">
         <v>47.6</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Cash inflows from borrowings</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33">
         <v>16</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>9089186</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>10692927</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>51469336</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>51859785</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="4">
         <v>-390449</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="4">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Cash outflows from repayments of borrowings</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34">
         <v>16</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>8618714</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>10139444</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>48805196</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>47781349</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="4">
         <v>1023847</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cash inflows/(outflows) from derivative instruments, net</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35">
         <v>18858</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>22185</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>106786</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>58753</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>48033</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2">
         <v>81.8</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Interest paid</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36">
         <v>566381</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>666315</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>3207243</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>1986629</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>1220614</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="2">
         <v>61.4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Interest received</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37">
         <v>259551</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>305348</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1469761</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1135302</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>334459</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="2">
         <v>29.5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Other cash inflows/(outflows)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38">
         <v>24733</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>29097</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>140053</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>2588</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>137465</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="2">
         <v>5311.6</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Transactions with non-controlling interests</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
         <v>13076</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>15383</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>74044</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>2588</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>71456</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2">
         <v>2761.1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Contribution of non-controlling interests to capital increases</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40">
         <v>11657</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>13714</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>66009</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total cash flows from financing activities</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41">
         <v>391910</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>461061</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>2219270</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>984261</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="2">
         <v>1235009</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="2">
         <v>125.5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Effect of exchange rate changes on cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42">
         <v>965638</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>1136020</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>5468120</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1039286</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>4428834</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2">
         <v>426.1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Net increase/(decrease) in cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43">
         <v>627700</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>738459</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>3554486</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3657317</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="4">
         <v>-102831</v>
       </c>
-      <c r="I43" s="4" t="n">
+      <c r="I43" s="4">
         <v>-2.8</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at the beginning of the period</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44">
         <v>3470469</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>4082816</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>19652226</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>15994909</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2">
         <v>3657317</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2">
         <v>22.9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at the end of the period</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
         <v>36</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>4098169</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>4821275</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>23206712</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>19652226</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>3554486</v>
       </c>
-      <c r="I45" s="2" t="n">
-        <v>18.1</v>
+      <c r="I45" s="2">
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
+++ b/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
@@ -1,56 +1,442 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CBS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CIS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CCF" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CBS" sheetId="1" r:id="rId1"/>
+    <sheet name="CIS" sheetId="2" r:id="rId2"/>
+    <sheet name="CCF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>EUR-2018</t>
+  </si>
+  <si>
+    <t>USD-2018</t>
+  </si>
+  <si>
+    <t>TL-2018</t>
+  </si>
+  <si>
+    <t>TL-2017</t>
+  </si>
+  <si>
+    <t>TL-Diff</t>
+  </si>
+  <si>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Financial assets</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Related parties</t>
+  </si>
+  <si>
+    <t>Third parties</t>
+  </si>
+  <si>
+    <t>Receivables from finance sector operations</t>
+  </si>
+  <si>
+    <t>Derivative instruments</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other receivables</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Assets held for sale</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Investment properties</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other intangible assets</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Other non-current assets</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Short term borrowings</t>
+  </si>
+  <si>
+    <t>Short term portion of long term borrowings</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Current income tax liabilities</t>
+  </si>
+  <si>
+    <t>Short term provisions</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Other current liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities related to assets held for sale</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Long term borrowings</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Long term provisions</t>
+  </si>
+  <si>
+    <t>Long term provisions for employee benefits</t>
+  </si>
+  <si>
+    <t>Other long term provisions</t>
+  </si>
+  <si>
+    <t>Other non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Paid-in share capital</t>
+  </si>
+  <si>
+    <t>Adjustment to share capital</t>
+  </si>
+  <si>
+    <t>Share premium</t>
+  </si>
+  <si>
+    <t>Other comprehensive income/expense not to be reclassified to profit or loss</t>
+  </si>
+  <si>
+    <t>Other comprehensive income/expense to be reclassified to profit or loss</t>
+  </si>
+  <si>
+    <t>Restricted reserves</t>
+  </si>
+  <si>
+    <t>Prior years’ income</t>
+  </si>
+  <si>
+    <t>Profit for the period</t>
+  </si>
+  <si>
+    <t>Equity holders of the parent</t>
+  </si>
+  <si>
+    <t>Non-controlling interests</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Total liabilities and equity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Revenue from finance sector operations</t>
+  </si>
+  <si>
+    <t>Total revenue</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Cost of finance sector operations</t>
+  </si>
+  <si>
+    <t>Total costs</t>
+  </si>
+  <si>
+    <t>Gross profit non-finance</t>
+  </si>
+  <si>
+    <t>Gross profit finance</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Marketing expenses</t>
+  </si>
+  <si>
+    <t>General administrative expenses</t>
+  </si>
+  <si>
+    <t>Research and development expenses</t>
+  </si>
+  <si>
+    <t>Other operating income</t>
+  </si>
+  <si>
+    <t>Other operating expenses</t>
+  </si>
+  <si>
+    <t>the equity method</t>
+  </si>
+  <si>
+    <t>Operating profit</t>
+  </si>
+  <si>
+    <t>Gains from investment activities</t>
+  </si>
+  <si>
+    <t>Losses from investment activities</t>
+  </si>
+  <si>
+    <t>Operating profit before financial income/(expense)</t>
+  </si>
+  <si>
+    <t>Financial income</t>
+  </si>
+  <si>
+    <t>Financial expense</t>
+  </si>
+  <si>
+    <t>Profit before tax</t>
+  </si>
+  <si>
+    <t>Tax income/(expense)</t>
+  </si>
+  <si>
+    <t>Current income tax expense</t>
+  </si>
+  <si>
+    <t>Deferred tax income</t>
+  </si>
+  <si>
+    <t>Tax expenses</t>
+  </si>
+  <si>
+    <t>Undistributed profits of investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Depreciation and amortisation</t>
+  </si>
+  <si>
+    <t>Adjustments for provisions</t>
+  </si>
+  <si>
+    <t>Adjustments for impairment loss/(reversal of impairment loss)</t>
+  </si>
+  <si>
+    <t>Interest (income)/expenses, net</t>
+  </si>
+  <si>
+    <t>Fair value losses/(gains) on derivative instruments</t>
+  </si>
+  <si>
+    <t>Unrealised foreign exchange losses/(gains)</t>
+  </si>
+  <si>
+    <t>Exchange (gains)/losses on borrowings, net</t>
+  </si>
+  <si>
+    <t>Exchange (gains)/losses on cash and cash equivalents, net</t>
+  </si>
+  <si>
+    <t>Gain from bargain purchases</t>
+  </si>
+  <si>
+    <t>Losses/(gains) on disposal of non-current assets</t>
+  </si>
+  <si>
+    <t>Gain on sale of interest in a subsidiary</t>
+  </si>
+  <si>
+    <t>Losses on disposal of financial assets</t>
+  </si>
+  <si>
+    <t>Losses/(gains) on exchange transactions</t>
+  </si>
+  <si>
+    <t>Changes in working capital</t>
+  </si>
+  <si>
+    <t>Income taxes refund/(paid)</t>
+  </si>
+  <si>
+    <t>Dividend payments received from Joint Ventures, net</t>
+  </si>
+  <si>
+    <t>Total cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Cash outflows from purchases of property, plant and equipment and intangible assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of property, plant and equipment and intangible assets</t>
+  </si>
+  <si>
+    <t>Cash outflows from capital increases of Joint Ventures</t>
+  </si>
+  <si>
+    <t>Cash outflows from acquisition of interest/capital increase in financial assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of interest/capital decrease in financial assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of interest in a subsidiary</t>
+  </si>
+  <si>
+    <t>Other cash inflows/(outflows)</t>
+  </si>
+  <si>
+    <t>Cash outflows due to business combinations, net 3,</t>
+  </si>
+  <si>
+    <t>Total cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>Cash inflows from borrowings</t>
+  </si>
+  <si>
+    <t>Cash outflows from repayments of borrowings</t>
+  </si>
+  <si>
+    <t>Cash inflows/(outflows) from derivative instruments, net</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Transactions with non-controlling interests</t>
+  </si>
+  <si>
+    <t>Contribution of non-controlling interests to capital increases</t>
+  </si>
+  <si>
+    <t>Total cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Effect of exchange rate changes on cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Net increase/(decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the beginning of the period</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the end of the period</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF9AA2"/>
+        <fgColor rgb="FFFF9AA2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFDAC1"/>
+        <fgColor rgb="FFFFDAC1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2F0CB"/>
+        <fgColor rgb="FFE2F0CB"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -63,29 +449,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -373,4209 +769,3888 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
         <v>4077221</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>4671727</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>24577490</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>20850437</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3">
         <v>3727053</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3">
         <v>17.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Financial assets</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2">
         <v>9019</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>10334</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>54364</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Trade receivables</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>2906154</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>3329905</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>17518296</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>15313455</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3">
         <v>2204841</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3">
         <v>14.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Related parties</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>277670</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>318157</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>1673794</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>1775864</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4">
         <v>-102070</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4">
         <v>-5.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>2628484</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>3011748</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>15844502</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>13537591</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3">
         <v>2306911</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Receivables from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2">
         <v>317506</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>363803</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>1913929</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>2147141</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3">
         <v>-233212</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3">
         <v>-10.9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>83706</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>95911</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>504579</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>617246</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3">
         <v>-112667</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3">
         <v>-18.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Inventories</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2">
         <v>2363688</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>2708341</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>14248311</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>11038358</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3">
         <v>3209953</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3">
         <v>29.1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Other receivables</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2">
         <v>423432</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>485174</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>2552450</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>1326109</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3">
         <v>1226341</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3">
         <v>92.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Other current assets</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
         <v>21</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>555973</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>637040</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>3351406</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>1613603</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3">
         <v>1737803</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3">
         <v>107.7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>10736699</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>12302235</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>64720825</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>52906349</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3">
         <v>11814476</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3">
         <v>22.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Assets held for sale</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
         <v>23</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>7451</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>8538</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>44917</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>43794</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="5">
         <v>1123</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="5">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total current assets</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>10744150</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>12310773</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>64765742</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>52950143</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3">
         <v>11815599</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3">
         <v>22.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Financial assets</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2">
         <v>11665</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2">
         <v>13365</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2">
         <v>70314</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2">
         <v>155765</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3">
         <v>-85451</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3">
         <v>-54.9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Investments accounted for using the equity method</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>3028691</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>3470310</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>18256952</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2">
         <v>15829122</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3">
         <v>2427830</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3">
         <v>15.3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Trade receivables</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
         <v>8</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2">
         <v>57030</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2">
         <v>65345</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2">
         <v>343774</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2">
         <v>40538</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3">
         <v>303236</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3">
         <v>748</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2">
         <v>57030</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>65345</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2">
         <v>343774</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2">
         <v>40538</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3">
         <v>303236</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3">
         <v>748</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Receivables from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2">
         <v>206629</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>236758</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2">
         <v>1245560</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2">
         <v>1699892</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3">
         <v>-454332</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3">
         <v>-26.7</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2">
         <v>69515</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2">
         <v>79652</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2">
         <v>419039</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2">
         <v>194562</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3">
         <v>224477</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="3">
         <v>115.4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Investment properties</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
         <v>12</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2">
         <v>77523</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2">
         <v>88827</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2">
         <v>467311</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2">
         <v>475799</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="5">
         <v>-8488</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="5">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Property, plant and equipment</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
         <v>13</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2">
         <v>4379034</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2">
         <v>5017548</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2">
         <v>26396819</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2">
         <v>21486258</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3">
         <v>4910561</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="3">
         <v>22.9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Intangible assets</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
         <v>1138879</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2">
         <v>1304941</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2">
         <v>6865165</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2">
         <v>6174859</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3">
         <v>690306</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="3">
         <v>11.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Goodwill</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
         <v>14</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2">
         <v>538226</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2">
         <v>616706</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2">
         <v>3244429</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2">
         <v>3174575</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="5">
         <v>69854</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="5">
         <v>2.2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Other intangible assets</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
         <v>15</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2">
         <v>600653</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2">
         <v>688235</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2">
         <v>3620736</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2">
         <v>3000284</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3">
         <v>620452</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="3">
         <v>20.7</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Deferred tax assets</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
         <v>17</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2">
         <v>731221</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2">
         <v>837842</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2">
         <v>4407803</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2">
         <v>3596400</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3">
         <v>811403</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="3">
         <v>22.6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Other non-current assets</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
         <v>21</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2">
         <v>337990</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2">
         <v>387273</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2">
         <v>2037402</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2">
         <v>1461030</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="3">
         <v>576372</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="3">
         <v>39.4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total non-current assets</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>10038177</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2">
         <v>11501861</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2">
         <v>60510139</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2">
         <v>51114225</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="3">
         <v>9395914</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="3">
         <v>18.4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>20782327</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2">
         <v>23812634</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2">
         <v>125275881</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2">
         <v>104064368</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3">
         <v>21211513</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="3">
         <v>20.4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Short term borrowings</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
         <v>16</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2">
         <v>1332399</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2">
         <v>1526679</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2">
         <v>8031703</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2">
         <v>3402487</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3">
         <v>4629216</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="3">
         <v>136.1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Short term portion of long term borrowings</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
         <v>16</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2">
         <v>1257785</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="2">
         <v>1441185</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2">
         <v>7581929</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2">
         <v>9792637</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3">
         <v>-2210708</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="3">
         <v>-22.6</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Trade payables</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2">
         <v>8</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2">
         <v>2587468</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2">
         <v>2964751</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="2">
         <v>15597256</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="2">
         <v>14931416</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="5">
         <v>665840</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="5">
         <v>4.5</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Related parties</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
         <v>8</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2">
         <v>198471</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="2">
         <v>227411</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="2">
         <v>1196384</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="2">
         <v>1554918</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="3">
         <v>-358534</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="3">
         <v>-23.1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
         <v>8</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2">
         <v>2388997</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2">
         <v>2737340</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="2">
         <v>14400872</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="2">
         <v>13376498</v>
       </c>
-      <c r="H34" s="3" t="n">
+      <c r="H34" s="4">
         <v>1024374</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="4">
         <v>7.7</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2">
         <v>80838</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="2">
         <v>92625</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="2">
         <v>487291</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="2">
         <v>193805</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="3">
         <v>293486</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="3">
         <v>151.4</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Current income tax liabilities</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2">
         <v>17</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2">
         <v>32349</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2">
         <v>37066</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="2">
         <v>195000</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="2">
         <v>73704</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3">
         <v>121296</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="3">
         <v>164.6</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Short term provisions</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
         <v>19</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2">
         <v>193481</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="2">
         <v>221693</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="2">
         <v>1166305</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="2">
         <v>1062480</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="4">
         <v>103825</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="4">
         <v>9.800000000000001</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Other payables</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
         <v>20</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2">
         <v>546326</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="2">
         <v>625986</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="2">
         <v>3293252</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="2">
         <v>2864158</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3">
         <v>429094</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Other current liabilities</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
         <v>21</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2">
         <v>700599</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="2">
         <v>802754</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="2">
         <v>4223207</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="2">
         <v>3331095</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="3">
         <v>892112</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="3">
         <v>26.8</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>6731245</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2">
         <v>7712739</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="2">
         <v>40575943</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="2">
         <v>35651782</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="3">
         <v>4924161</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="3">
         <v>13.8</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Liabilities related to assets held for sale</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
         <v>23</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2">
         <v>417</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="2">
         <v>477</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="2">
         <v>2512</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="2">
         <v>2871</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3">
         <v>-359</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="3">
         <v>-12.5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
         <v>6731662</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="2">
         <v>7713216</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="2">
         <v>40578455</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="2">
         <v>35654653</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3">
         <v>4923802</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="3">
         <v>13.8</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Long term borrowings</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
         <v>16</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2">
         <v>5673531</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="2">
         <v>6500797</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="2">
         <v>34200045</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="2">
         <v>23185745</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="3">
         <v>11014300</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="3">
         <v>47.5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
         <v>10</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2">
         <v>8203</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="2">
         <v>9400</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="2">
         <v>49450</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="2">
         <v>3364</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="3">
         <v>46086</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="3">
         <v>1370</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Other payables</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2">
         <v>20</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2">
         <v>103193</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="2">
         <v>118240</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="2">
         <v>622050</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Deferred tax liabilities</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2">
         <v>17</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2">
         <v>149772</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="2">
         <v>171611</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="2">
         <v>902826</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="2">
         <v>735331</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="3">
         <v>167495</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="3">
         <v>22.8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Long term provisions</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
         <v>152617</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="2">
         <v>174871</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="2">
         <v>919978</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="2">
         <v>882171</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="5">
         <v>37807</v>
       </c>
-      <c r="I47" s="4" t="n">
+      <c r="I47" s="5">
         <v>4.3</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Long term provisions for employee benefits</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2">
         <v>18</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2">
         <v>126760</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="2">
         <v>145243</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="2">
         <v>764110</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="2">
         <v>649036</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="3">
         <v>115074</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="3">
         <v>17.7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Other long term provisions</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2">
         <v>19</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2">
         <v>25857</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="2">
         <v>29628</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="2">
         <v>155868</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="2">
         <v>233135</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="3">
         <v>-77267</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="3">
         <v>-33.1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Other non-current liabilities</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2">
         <v>21</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2">
         <v>173302</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="2">
         <v>198572</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="2">
         <v>1044667</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="2">
         <v>672086</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="3">
         <v>372581</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="3">
         <v>55.4</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total non-current liabilities</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
         <v>6260618</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="2">
         <v>7173491</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="2">
         <v>37739016</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="2">
         <v>25478697</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="3">
         <v>12260319</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="3">
         <v>48.1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total liabilities</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
+      <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
         <v>12992280</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="2">
         <v>14886707</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="2">
         <v>78317471</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="2">
         <v>61133350</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="3">
         <v>17184121</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="3">
         <v>28.1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Paid-in share capital</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="2">
         <v>22</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2">
         <v>420686</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="2">
         <v>482027</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="2">
         <v>2535898</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="2">
         <v>2535898</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="5">
         <v>0</v>
       </c>
-      <c r="I53" s="4" t="n">
+      <c r="I53" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Adjustment to share capital</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="2">
         <v>22</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2">
         <v>160466</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="2">
         <v>183864</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="2">
         <v>967288</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="2">
         <v>967288</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="H54" s="5">
         <v>0</v>
       </c>
-      <c r="I54" s="4" t="n">
+      <c r="I54" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Share premium</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+      <c r="B55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
         <v>1540</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="2">
         <v>1765</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="2">
         <v>9286</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="2">
         <v>9286</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="H55" s="5">
         <v>0</v>
       </c>
-      <c r="I55" s="4" t="n">
+      <c r="I55" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Other comprehensive income/expense not to be reclassified to profit or loss</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="2">
         <v>22</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2">
         <v>37350</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="2">
         <v>42796</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="2">
         <v>225146</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="2">
         <v>163738</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="3">
         <v>61408</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="3">
         <v>37.5</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Other comprehensive income/expense to be reclassified to profit or loss</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="2">
         <v>22</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2">
         <v>46495</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="2">
         <v>53274</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="2">
         <v>280270</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="2">
         <v>98668</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="3">
         <v>181602</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="3">
         <v>184.1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Restricted reserves</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="2">
         <v>22</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2">
         <v>86889</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="2">
         <v>99558</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="2">
         <v>523765</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="2">
         <v>2602389</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="3">
         <v>-2078624</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="3">
         <v>-79.90000000000001</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Prior years’ income</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
+      <c r="B59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
         <v>4017321</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="2">
         <v>4603093</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="2">
         <v>24216413</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="2">
         <v>19211387</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="3">
         <v>5005026</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="3">
         <v>26.1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
+      <c r="B60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
         <v>918551</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="2">
         <v>1052487</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="2">
         <v>5537028</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="2">
         <v>4908740</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="3">
         <v>628288</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="3">
         <v>12.8</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Equity holders of the parent</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
+      <c r="B61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
         <v>5521608</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="2">
         <v>6326724</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="2">
         <v>33284262</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61" s="2">
         <v>29972582</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="3">
         <v>3311680</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Non-controlling interests</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="B62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
         <v>2268439</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="2">
         <v>2599203</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="2">
         <v>13674148</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62" s="2">
         <v>12958436</v>
       </c>
-      <c r="H62" s="3" t="n">
+      <c r="H62" s="4">
         <v>715712</v>
       </c>
-      <c r="I62" s="3" t="n">
+      <c r="I62" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total equity</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="B63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
         <v>7790047</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="2">
         <v>8925927</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="2">
         <v>46958410</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="2">
         <v>42931018</v>
       </c>
-      <c r="H63" s="3" t="n">
+      <c r="H63" s="4">
         <v>4027392</v>
       </c>
-      <c r="I63" s="3" t="n">
+      <c r="I63" s="4">
         <v>9.4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total liabilities and equity</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
+      <c r="B64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2">
         <v>20782327</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="2">
         <v>23812634</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="2">
         <v>125275881</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="2">
         <v>104064368</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="3">
         <v>21211513</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="3">
         <v>20.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2">
         <v>25159335</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>29598572</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>142469768</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>98272831</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3">
         <v>44196937</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Revenue from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>137486</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>161744</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>778540</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2">
         <v>593918</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3">
         <v>184622</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3">
         <v>31.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total revenue</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>25296821</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>29760316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>143248308</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>98866749</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3">
         <v>44381559</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3">
         <v>44.9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>21235844</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>24982801</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>120252216</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>82173057</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3">
         <v>38079159</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3">
         <v>46.3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cost of finance sector operations</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>98416</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>115781</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>557302</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>416317</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3">
         <v>140985</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3">
         <v>33.9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total costs</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>21334260</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>25098582</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>120809518</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>82589374</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3">
         <v>38220144</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3">
         <v>46.3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gross profit non-finance</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>3923491</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>4615771</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>22217552</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>16099774</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3">
         <v>6117778</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gross profit finance</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>39070</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>45963</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>221238</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>177601</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3">
         <v>43637</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3">
         <v>24.6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gross profit</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>3962561</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>4661734</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>22438790</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>16277375</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3">
         <v>6161415</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3">
         <v>37.9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Marketing expenses</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2">
         <v>25</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>1184557</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>1393567</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>6707793</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>5347579</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3">
         <v>1360214</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3">
         <v>25.4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General administrative expenses</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2">
         <v>710489</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>835851</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>4023287</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>3229364</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3">
         <v>793923</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3">
         <v>24.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Research and development expenses</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2">
         <v>25</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>49664</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>58427</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>281234</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>234326</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3">
         <v>46908</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Other operating income</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2">
         <v>26</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2">
         <v>995477</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>1171124</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>5637086</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>2508489</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3">
         <v>3128597</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3">
         <v>124.7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Other operating expenses</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2">
         <v>26</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2">
         <v>1284885</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2">
         <v>1511596</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2">
         <v>7275918</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2">
         <v>2239369</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3">
         <v>5036549</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3">
         <v>224.9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>the equity method</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>560826</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>659780</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>3175787</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2">
         <v>2691404</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3">
         <v>484383</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Operating profit</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2">
         <v>2289269</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2">
         <v>2693197</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2">
         <v>12963431</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2">
         <v>10426630</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3">
         <v>2536801</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3">
         <v>24.3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gains from investment activities</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2">
         <v>27</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2">
         <v>62147</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>73112</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2">
         <v>351917</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2">
         <v>148192</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3">
         <v>203725</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3">
         <v>137.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Losses from investment activities</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2">
         <v>27</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2">
         <v>34014</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>40016</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2">
         <v>192612</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2">
         <v>63549</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3">
         <v>129063</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3">
         <v>203.1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Operating profit before financial income/(expense)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>2317402</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2">
         <v>2726293</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2">
         <v>13122736</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2">
         <v>10511273</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3">
         <v>2611463</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="3">
         <v>24.8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Financial income</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2">
         <v>28</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2">
         <v>2188432</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2">
         <v>2574570</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2">
         <v>12392436</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2">
         <v>6208953</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3">
         <v>6183483</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="3">
         <v>99.59999999999999</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Financial expense</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2">
         <v>28</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2">
         <v>2971092</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2">
         <v>3495326</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2">
         <v>16824401</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2">
         <v>8061172</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3">
         <v>8763229</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="3">
         <v>108.7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Profit before tax</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2">
         <v>1534742</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2">
         <v>1805537</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2">
         <v>8690771</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2">
         <v>8659054</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="5">
         <v>31717</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Tax income/(expense)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
         <v>46917</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2">
         <v>55196</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2">
         <v>265678</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2">
         <v>761627</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3">
         <v>-495949</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="3">
         <v>-65.09999999999999</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Current income tax expense</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2">
         <v>17</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2">
         <v>124801</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2">
         <v>146822</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2">
         <v>706712</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2">
         <v>788821</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3">
         <v>-82109</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="3">
         <v>-10.4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Deferred tax income</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2">
         <v>17</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2">
         <v>77884</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2">
         <v>91626</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2">
         <v>441034</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2">
         <v>27194</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3">
         <v>413840</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="3">
         <v>1521.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>1487825</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2">
         <v>1750341</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2">
         <v>8425093</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2">
         <v>7897427</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="4">
         <v>527666</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="4">
         <v>6.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Non-controlling interests</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2">
         <v>510016</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2">
         <v>600005</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2">
         <v>2888065</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2">
         <v>2988687</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="5">
         <v>-100622</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="5">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Equity holders of the parent</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2">
         <v>977809</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2">
         <v>1150336</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2">
         <v>5537028</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2">
         <v>4908740</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3">
         <v>628288</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="3">
         <v>12.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>1487825</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>1750341</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>8425093</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>7897427</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4">
         <v>527666</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4">
         <v>6.7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tax expenses</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2">
         <v>46917</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>55196</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>265678</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2">
         <v>761627</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3">
         <v>-495949</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3">
         <v>-65.09999999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Undistributed profits of investments accounted for using the equity method</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>560826</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>659780</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>3175787</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>2691404</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3">
         <v>484383</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortisation</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>373196</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>439044</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>2113296</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>1579490</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3">
         <v>533806</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3">
         <v>33.8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Adjustments for provisions</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>11688</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>13751</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>66188</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>181763</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3">
         <v>-115575</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3">
         <v>-63.6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Adjustments for impairment loss/(reversal of impairment loss)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2">
         <v>71849</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>84524</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>406851</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>76518</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3">
         <v>330333</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3">
         <v>431.7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Interest (income)/expenses, net</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>393225</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>462607</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>2226715</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>862882</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3">
         <v>1363833</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3">
         <v>158.1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fair value losses/(gains) on derivative instruments</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>867</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>1019</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>4907</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>159347</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3">
         <v>-154440</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3">
         <v>-96.90000000000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unrealised foreign exchange losses/(gains)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>379158</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>446059</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>2147057</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>910978</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3">
         <v>1236079</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3">
         <v>135.7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Exchange (gains)/losses on borrowings, net</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>1344796</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>1582079</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>7615177</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>1950264</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3">
         <v>5664913</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3">
         <v>290.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Exchange (gains)/losses on cash and cash equivalents, net</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>965638</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>1136020</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>5468120</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>1039286</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3">
         <v>4428834</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3">
         <v>426.1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gain from bargain purchases</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>33189</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>39045</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>187941</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>2681</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3">
         <v>185260</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3">
         <v>6910.1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Losses/(gains) on disposal of non-current assets</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2">
         <v>27</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2">
         <v>9499</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>11175</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>53792</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>16979</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3">
         <v>36813</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3">
         <v>216.8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Gain on sale of interest in a subsidiary</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2">
         <v>27</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2">
         <v>4861</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2">
         <v>5718</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2">
         <v>27525</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Losses on disposal of financial assets</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2">
         <v>27</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>1446</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>1702</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>8191</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Losses/(gains) on exchange transactions</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2">
         <v>27</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>32099</v>
       </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>2156062</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>2536487</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2">
         <v>12209117</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2">
         <v>9686869</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3">
         <v>2522248</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Changes in working capital</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2">
         <v>36</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2">
         <v>1047832</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>1232714</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2">
         <v>5933546</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2">
         <v>4357202</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3">
         <v>1576344</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3">
         <v>36.2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Income taxes refund/(paid)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
+      <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>94341</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2">
         <v>110987</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2">
         <v>534224</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2">
         <v>864983</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3">
         <v>-330759</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="3">
         <v>-38.2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Dividend payments received from Joint Ventures, net</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2">
         <v>7</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2">
         <v>192259</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2">
         <v>226183</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2">
         <v>1088707</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2">
         <v>600957</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3">
         <v>487750</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="3">
         <v>81.2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total cash flows from operating activities</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
+      <c r="B22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
         <v>1206148</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2">
         <v>1418969</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2">
         <v>6830054</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2">
         <v>5065641</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3">
         <v>1764413</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="3">
         <v>34.8</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cash outflows from purchases of property, plant and equipment and intangible assets</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2">
         <v>1036765</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2">
         <v>1219697</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2">
         <v>5870888</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2">
         <v>4537854</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3">
         <v>1333034</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="3">
         <v>29.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of property, plant and equipment and intangible assets</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
         <v>287220</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2">
         <v>337899</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2">
         <v>1626442</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2">
         <v>1263374</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3">
         <v>363068</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="3">
         <v>28.7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Cash outflows from capital increases of Joint Ventures</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2">
         <v>7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2">
         <v>278914</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2">
         <v>328126</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2">
         <v>1579404</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2">
         <v>69395</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3">
         <v>1510009</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="3">
         <v>2176</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cash outflows from acquisition of interest/capital increase in financial assets</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <v>1645</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2">
         <v>1935</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2">
         <v>9314</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2">
         <v>13041</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3">
         <v>-3727</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="3">
         <v>-28.6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of interest/capital decrease in financial assets</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>2686</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2">
         <v>3160</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2">
         <v>15209</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2">
         <v>1250</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="3">
         <v>13959</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="3">
         <v>1116.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of interest in a subsidiary</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="B28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>2430</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2">
         <v>2859</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2">
         <v>13762</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Other cash inflows/(outflows)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>127188</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2">
         <v>149629</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2">
         <v>720225</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2">
         <v>76205</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3">
         <v>644020</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="3">
         <v>845.1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Cash outflows due to business combinations, net 3,</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2">
         <v>20</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2">
         <v>127188</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2">
         <v>149629</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2">
         <v>720225</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2">
         <v>76205</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3">
         <v>644020</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="3">
         <v>845.1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total cash flows from investing activities</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="B31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
         <v>1152176</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="2">
         <v>1355469</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2">
         <v>6524418</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2">
         <v>3431871</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3">
         <v>3092547</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="3">
         <v>90.09999999999999</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Dividends paid</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <v>599143</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2">
         <v>704859</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="2">
         <v>3392767</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="2">
         <v>2299013</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3">
         <v>1093754</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="3">
         <v>47.6</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Cash inflows from borrowings</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2">
         <v>16</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2">
         <v>9089186</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="2">
         <v>10692927</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="2">
         <v>51469336</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="2">
         <v>51859785</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="5">
         <v>-390449</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="5">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Cash outflows from repayments of borrowings</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2">
         <v>16</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2">
         <v>8618714</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2">
         <v>10139444</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="2">
         <v>48805196</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="2">
         <v>47781349</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="5">
         <v>1023847</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="5">
         <v>2.1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cash inflows/(outflows) from derivative instruments, net</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="B35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>18858</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="2">
         <v>22185</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="2">
         <v>106786</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="2">
         <v>58753</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="3">
         <v>48033</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="3">
         <v>81.8</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Interest paid</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+      <c r="B36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
         <v>566381</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2">
         <v>666315</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="2">
         <v>3207243</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="2">
         <v>1986629</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3">
         <v>1220614</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="3">
         <v>61.4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Interest received</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+      <c r="B37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
         <v>259551</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="2">
         <v>305348</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="2">
         <v>1469761</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="2">
         <v>1135302</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="3">
         <v>334459</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="3">
         <v>29.5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Other cash inflows/(outflows)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="B38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
         <v>24733</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="2">
         <v>29097</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="2">
         <v>140053</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="2">
         <v>2588</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3">
         <v>137465</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="3">
         <v>5311.6</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Transactions with non-controlling interests</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="B39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
         <v>13076</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="2">
         <v>15383</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="2">
         <v>74044</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="2">
         <v>2588</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="3">
         <v>71456</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="3">
         <v>2761.1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Contribution of non-controlling interests to capital increases</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="B40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>11657</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2">
         <v>13714</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="2">
         <v>66009</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total cash flows from financing activities</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
         <v>391910</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="2">
         <v>461061</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="2">
         <v>2219270</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="2">
         <v>984261</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3">
         <v>1235009</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="3">
         <v>125.5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Effect of exchange rate changes on cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
         <v>965638</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="2">
         <v>1136020</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="2">
         <v>5468120</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="2">
         <v>1039286</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3">
         <v>4428834</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="3">
         <v>426.1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Net increase/(decrease) in cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
         <v>627700</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="2">
         <v>738459</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="2">
         <v>3554486</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="2">
         <v>3657317</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="5">
         <v>-102831</v>
       </c>
-      <c r="I43" s="4" t="n">
+      <c r="I43" s="5">
         <v>-2.8</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at the beginning of the period</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="B44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
         <v>3470469</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="2">
         <v>4082816</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="2">
         <v>19652226</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="2">
         <v>15994909</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="3">
         <v>3657317</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="3">
         <v>22.9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at the end of the period</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="2">
         <v>36</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2">
         <v>4098169</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="2">
         <v>4821275</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="2">
         <v>23206712</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="2">
         <v>19652226</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="3">
         <v>3554486</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="3">
         <v>18.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
+++ b/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Demo FS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58AD02E-EF6B-4920-BC94-DD9481AE3612}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBS" sheetId="1" r:id="rId1"/>
     <sheet name="CIS" sheetId="2" r:id="rId2"/>
     <sheet name="CCF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -396,8 +402,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,19 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9AA2"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDAC1"/>
+        <fgColor rgb="FFFFC031"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0CB"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +488,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -528,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,9 +574,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,6 +626,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -769,17 +819,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="75.73046875" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="5" width="8.73046875" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" customWidth="1"/>
+    <col min="9" max="9" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -831,10 +888,10 @@
         <v>3727053</v>
       </c>
       <c r="I2" s="3">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -857,7 +914,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -886,7 +943,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -915,7 +972,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -944,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -973,7 +1030,7 @@
         <v>-10.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1002,7 +1059,7 @@
         <v>-18.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1031,7 +1088,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1060,7 +1117,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1089,7 +1146,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1114,7 +1171,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1143,7 +1200,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1170,7 +1227,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1199,7 +1256,7 @@
         <v>-54.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1228,7 +1285,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1257,7 +1314,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1286,7 +1343,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1315,7 +1372,7 @@
         <v>-26.7</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1344,7 +1401,7 @@
         <v>115.4</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1373,7 +1430,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1402,7 +1459,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1429,7 +1486,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1455,10 +1512,10 @@
         <v>69854</v>
       </c>
       <c r="I24" s="5">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1487,7 +1544,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1516,7 +1573,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1545,7 +1602,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1569,10 +1626,10 @@
         <v>9395914</v>
       </c>
       <c r="I28" s="3">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1596,10 +1653,10 @@
         <v>21211513</v>
       </c>
       <c r="I29" s="3">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1628,7 +1685,7 @@
         <v>136.1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1657,7 +1714,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1686,7 +1743,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1715,7 +1772,7 @@
         <v>-23.1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1744,7 +1801,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1773,7 +1830,7 @@
         <v>151.4</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1802,7 +1859,7 @@
         <v>164.6</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1828,10 +1885,10 @@
         <v>103825</v>
       </c>
       <c r="I37" s="4">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1860,7 +1917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1889,7 +1946,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1914,7 +1971,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1943,7 +2000,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1970,7 +2027,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1999,7 +2056,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2028,7 +2085,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2051,7 +2108,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2080,7 +2137,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2107,7 +2164,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2136,7 +2193,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2165,7 +2222,7 @@
         <v>-33.1</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2194,7 +2251,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2221,7 +2278,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2248,7 +2305,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2277,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2306,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2333,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2362,7 +2419,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2391,7 +2448,7 @@
         <v>184.1</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2417,10 +2474,10 @@
         <v>-2078624</v>
       </c>
       <c r="I58" s="3">
-        <v>-79.90000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-79.900000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2447,7 +2504,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2474,7 +2531,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2501,7 +2558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2528,7 +2585,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2555,7 +2612,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2579,7 +2636,7 @@
         <v>21211513</v>
       </c>
       <c r="I64" s="3">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2588,17 +2645,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="50.73046875" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="5" width="8.73046875" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="9" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2624,7 +2686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2653,7 +2715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2680,7 +2742,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2709,7 +2771,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2738,7 +2800,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2765,7 +2827,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2792,7 +2854,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2819,7 +2881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2846,7 +2908,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2873,7 +2935,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2902,7 +2964,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2931,7 +2993,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2960,7 +3022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2989,7 +3051,7 @@
         <v>124.7</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3018,7 +3080,7 @@
         <v>224.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3047,7 +3109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3076,7 +3138,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3105,7 +3167,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3134,7 +3196,7 @@
         <v>203.1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3161,7 +3223,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3187,10 +3249,10 @@
         <v>6183483</v>
       </c>
       <c r="I21" s="3">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3219,7 +3281,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3248,7 +3310,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3272,10 +3334,10 @@
         <v>-495949</v>
       </c>
       <c r="I24" s="3">
-        <v>-65.09999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-65.099999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3304,7 +3366,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3333,7 +3395,7 @@
         <v>1521.8</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3360,7 +3422,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3389,7 +3451,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3424,17 +3486,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="83.73046875" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="7" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" customWidth="1"/>
+    <col min="9" max="9" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3487,7 +3555,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3513,10 +3581,10 @@
         <v>-495949</v>
       </c>
       <c r="I3" s="3">
-        <v>-65.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-65.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3545,7 +3613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3571,10 +3639,10 @@
         <v>533806</v>
       </c>
       <c r="I5" s="3">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3603,7 +3671,7 @@
         <v>-63.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3632,7 +3700,7 @@
         <v>431.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3661,7 +3729,7 @@
         <v>158.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3685,10 +3753,10 @@
         <v>-154440</v>
       </c>
       <c r="I9" s="3">
-        <v>-96.90000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-96.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3712,10 +3780,10 @@
         <v>1236079</v>
       </c>
       <c r="I10" s="3">
-        <v>135.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3742,7 +3810,7 @@
         <v>290.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3769,7 +3837,7 @@
         <v>426.1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3798,7 +3866,7 @@
         <v>6910.1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3827,7 +3895,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3850,7 +3918,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3873,7 +3941,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3892,7 +3960,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3917,7 +3985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3943,10 +4011,10 @@
         <v>1576344</v>
       </c>
       <c r="I19" s="3">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3970,10 +4038,10 @@
         <v>-330759</v>
       </c>
       <c r="I20" s="3">
-        <v>-38.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-38.200000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4002,7 +4070,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4026,10 +4094,10 @@
         <v>1764413</v>
       </c>
       <c r="I22" s="3">
-        <v>34.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4058,7 +4126,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4085,7 +4153,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4114,7 +4182,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4141,7 +4209,7 @@
         <v>-28.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4168,7 +4236,7 @@
         <v>1116.7</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4189,7 +4257,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4216,7 +4284,7 @@
         <v>845.1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4245,7 +4313,7 @@
         <v>845.1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4269,10 +4337,10 @@
         <v>3092547</v>
       </c>
       <c r="I31" s="3">
-        <v>90.09999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4299,7 +4367,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4328,7 +4396,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4357,7 +4425,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4384,7 +4452,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4411,7 +4479,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4438,7 +4506,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4465,7 +4533,7 @@
         <v>5311.6</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4492,7 +4560,7 @@
         <v>2761.1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4513,7 +4581,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4540,7 +4608,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4567,7 +4635,7 @@
         <v>426.1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4594,7 +4662,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4621,7 +4689,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4647,7 +4715,7 @@
         <v>3554486</v>
       </c>
       <c r="I45" s="3">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
+++ b/KOC-HOLDING-2018-ANNUAL-REPORT.xlsx
@@ -1,43 +1,422 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CBS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CIS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CCF" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CBS" sheetId="1" r:id="rId1"/>
+    <sheet name="CIS" sheetId="2" r:id="rId2"/>
+    <sheet name="CCF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>EUR-2018</t>
+  </si>
+  <si>
+    <t>USD-2018</t>
+  </si>
+  <si>
+    <t>TL-2018</t>
+  </si>
+  <si>
+    <t>TL-2017</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>% Change</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Financial assets</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Related parties</t>
+  </si>
+  <si>
+    <t>Third parties</t>
+  </si>
+  <si>
+    <t>Receivables from finance sector operations</t>
+  </si>
+  <si>
+    <t>Derivative instruments</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other receivables</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Assets held for sale</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Investment properties</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other intangible assets</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Other non-current assets</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Short term borrowings</t>
+  </si>
+  <si>
+    <t>Short term portion of long term borrowings</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Current income tax liabilities</t>
+  </si>
+  <si>
+    <t>Short term provisions</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Other current liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities related to assets held for sale</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Long term borrowings</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Long term provisions</t>
+  </si>
+  <si>
+    <t>Long term provisions for employee benefits</t>
+  </si>
+  <si>
+    <t>Other long term provisions</t>
+  </si>
+  <si>
+    <t>Other non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Paid-in share capital</t>
+  </si>
+  <si>
+    <t>Adjustment to share capital</t>
+  </si>
+  <si>
+    <t>Share premium</t>
+  </si>
+  <si>
+    <t>Other comprehensive income/expense not to be reclassified to profit or loss</t>
+  </si>
+  <si>
+    <t>Other comprehensive income/expense to be reclassified to profit or loss</t>
+  </si>
+  <si>
+    <t>Restricted reserves</t>
+  </si>
+  <si>
+    <t>Prior years’ income</t>
+  </si>
+  <si>
+    <t>Profit for the period</t>
+  </si>
+  <si>
+    <t>Equity holders of the parent</t>
+  </si>
+  <si>
+    <t>Non-controlling interests</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Total liabilities and equity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Revenue from finance sector operations</t>
+  </si>
+  <si>
+    <t>Total revenue</t>
+  </si>
+  <si>
+    <t>Cost of sales</t>
+  </si>
+  <si>
+    <t>Cost of finance sector operations</t>
+  </si>
+  <si>
+    <t>Total costs</t>
+  </si>
+  <si>
+    <t>Gross profit non-finance</t>
+  </si>
+  <si>
+    <t>Gross profit finance</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Marketing expenses</t>
+  </si>
+  <si>
+    <t>General administrative expenses</t>
+  </si>
+  <si>
+    <t>Research and development expenses</t>
+  </si>
+  <si>
+    <t>Other operating income</t>
+  </si>
+  <si>
+    <t>Other operating expenses</t>
+  </si>
+  <si>
+    <t>the equity method</t>
+  </si>
+  <si>
+    <t>Operating profit</t>
+  </si>
+  <si>
+    <t>Gains from investment activities</t>
+  </si>
+  <si>
+    <t>Losses from investment activities</t>
+  </si>
+  <si>
+    <t>Operating profit before financial income/(expense)</t>
+  </si>
+  <si>
+    <t>Financial income</t>
+  </si>
+  <si>
+    <t>Financial expense</t>
+  </si>
+  <si>
+    <t>Profit before tax</t>
+  </si>
+  <si>
+    <t>Tax income/(expense)</t>
+  </si>
+  <si>
+    <t>Current income tax expense</t>
+  </si>
+  <si>
+    <t>Deferred tax income</t>
+  </si>
+  <si>
+    <t>Tax expenses</t>
+  </si>
+  <si>
+    <t>Undistributed profits of investments accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>Depreciation and amortisation</t>
+  </si>
+  <si>
+    <t>Adjustments for provisions</t>
+  </si>
+  <si>
+    <t>Adjustments for impairment loss/(reversal of impairment loss)</t>
+  </si>
+  <si>
+    <t>Interest (income)/expenses, net</t>
+  </si>
+  <si>
+    <t>Fair value losses/(gains) on derivative instruments</t>
+  </si>
+  <si>
+    <t>Unrealised foreign exchange losses/(gains)</t>
+  </si>
+  <si>
+    <t>Exchange (gains)/losses on borrowings, net</t>
+  </si>
+  <si>
+    <t>Exchange (gains)/losses on cash and cash equivalents, net</t>
+  </si>
+  <si>
+    <t>Gain from bargain purchases</t>
+  </si>
+  <si>
+    <t>Losses/(gains) on disposal of non-current assets</t>
+  </si>
+  <si>
+    <t>Gain on sale of interest in a subsidiary</t>
+  </si>
+  <si>
+    <t>Losses on disposal of financial assets</t>
+  </si>
+  <si>
+    <t>Losses/(gains) on exchange transactions</t>
+  </si>
+  <si>
+    <t>Changes in working capital</t>
+  </si>
+  <si>
+    <t>Income taxes refund/(paid)</t>
+  </si>
+  <si>
+    <t>Dividend payments received from Joint Ventures, net</t>
+  </si>
+  <si>
+    <t>Total cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Cash outflows from purchases of property, plant and equipment and intangible assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of property, plant and equipment and intangible assets</t>
+  </si>
+  <si>
+    <t>Cash outflows from capital increases of Joint Ventures</t>
+  </si>
+  <si>
+    <t>Cash outflows from acquisition of interest/capital increase in financial assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of interest/capital decrease in financial assets</t>
+  </si>
+  <si>
+    <t>Cash inflows from sale of interest in a subsidiary</t>
+  </si>
+  <si>
+    <t>Other cash inflows/(outflows)</t>
+  </si>
+  <si>
+    <t>Cash outflows due to business combinations, net 3,</t>
+  </si>
+  <si>
+    <t>Total cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>Cash inflows from borrowings</t>
+  </si>
+  <si>
+    <t>Cash outflows from repayments of borrowings</t>
+  </si>
+  <si>
+    <t>Cash inflows/(outflows) from derivative instruments, net</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Transactions with non-controlling interests</t>
+  </si>
+  <si>
+    <t>Contribution of non-controlling interests to capital increases</t>
+  </si>
+  <si>
+    <t>Total cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Effect of exchange rate changes on cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Net increase/(decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the beginning of the period</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the end of the period</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,119 +465,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="16192500" cy="11430000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="16192500" cy="11430000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="16192500" cy="11430000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,4182 +769,3912 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="4.7109375"/>
-    <col customWidth="1" max="2" min="2" style="2" width="75.7109375"/>
-    <col customWidth="1" max="3" min="3" style="2" width="5.7109375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="8.7109375"/>
-    <col customWidth="1" max="5" min="5" style="2" width="8.7109375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="9.7109375"/>
-    <col customWidth="1" max="7" min="7" style="2" width="11.7109375"/>
-    <col customWidth="1" max="8" min="8" style="2" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
         <v>4077221</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>4671727</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>24577490</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>20850437</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>3727053</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>17.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Financial assets</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2">
         <v>9019</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>10334</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>54364</v>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Trade receivables</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>2906154</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>3329905</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>17518296</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>15313455</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>2204841</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>14.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Related parties</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>277670</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>318157</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>1673794</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>1775864</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="4">
         <v>-102070</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="4">
         <v>-5.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>2628484</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>3011748</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>15844502</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>13537591</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>2306911</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Receivables from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2">
         <v>317506</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>363803</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>1913929</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>2147141</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>-233212</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>-10.9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>83706</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>95911</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>504579</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>617246</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>-112667</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>-18.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Inventories</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2">
         <v>2363688</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>2708341</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>14248311</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>11038358</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>3209953</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>29.1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Other receivables</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2">
         <v>423432</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>485174</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>2552450</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>1326109</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>1226341</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>92.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Other current assets</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
         <v>21</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>555973</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>637040</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>3351406</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>1613603</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>1737803</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>107.7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" t="n">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>10736699</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>12302235</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>64720825</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>52906349</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>11814476</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>22.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Assets held for sale</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
         <v>23</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>7451</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>8538</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>44917</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>43794</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="5">
         <v>1123</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="5">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total current assets</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>10744150</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>12310773</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>64765742</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>52950143</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="3">
         <v>11815599</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>22.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Financial assets</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2">
         <v>11665</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2">
         <v>13365</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2">
         <v>70314</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2">
         <v>155765</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="3">
         <v>-85451</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="3">
         <v>-54.9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Investments accounted for using the equity method</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>3028691</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>3470310</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>18256952</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2">
         <v>15829122</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>2427830</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="3">
         <v>15.3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Trade receivables</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
         <v>8</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2">
         <v>57030</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2">
         <v>65345</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2">
         <v>343774</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2">
         <v>40538</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="3">
         <v>303236</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>748</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2">
         <v>57030</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>65345</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2">
         <v>343774</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2">
         <v>40538</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="3">
         <v>303236</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="3">
         <v>748</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Receivables from finance sector operations</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2">
         <v>206629</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>236758</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2">
         <v>1245560</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2">
         <v>1699892</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="3">
         <v>-454332</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="3">
         <v>-26.7</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2">
         <v>69515</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2">
         <v>79652</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2">
         <v>419039</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2">
         <v>194562</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="3">
         <v>224477</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>115.4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Investment properties</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
         <v>12</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2">
         <v>77523</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2">
         <v>88827</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2">
         <v>467311</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2">
         <v>475799</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="5">
         <v>-8488</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="5">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Property, plant and equipment</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
         <v>13</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2">
         <v>4379034</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2">
         <v>5017548</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2">
         <v>26396819</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2">
         <v>21486258</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="3">
         <v>4910561</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="3">
         <v>22.9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Intangible assets</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
         <v>1138879</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2">
         <v>1304941</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2">
         <v>6865165</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2">
         <v>6174859</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="3">
         <v>690306</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="3">
         <v>11.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Goodwill</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
         <v>14</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2">
         <v>538226</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2">
         <v>616706</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2">
         <v>3244429</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2">
         <v>3174575</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="5">
         <v>69854</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="5">
         <v>2.2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Other intangible assets</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
         <v>15</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2">
         <v>600653</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2">
         <v>688235</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2">
         <v>3620736</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2">
         <v>3000284</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="3">
         <v>620452</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>20.7</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Deferred tax assets</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
         <v>17</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2">
         <v>731221</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2">
         <v>837842</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2">
         <v>4407803</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2">
         <v>3596400</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="3">
         <v>811403</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3">
         <v>22.6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Other non-current assets</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
         <v>21</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2">
         <v>337990</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2">
         <v>387273</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2">
         <v>2037402</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2">
         <v>1461030</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="3">
         <v>576372</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="3">
         <v>39.4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total non-current assets</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>10038177</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2">
         <v>11501861</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2">
         <v>60510139</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2">
         <v>51114225</v>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="3">
         <v>9395914</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="3">
         <v>18.4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total assets</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>20782327</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2">
         <v>23812634</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2">
         <v>125275881</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2">
         <v>104064368</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="3">
         <v>21211513</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="3">
         <v>20.4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Short term borrowings</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
         <v>16</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2">
         <v>1332399</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2">
         <v>1526679</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2">
         <v>8031703</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2">
         <v>3402487</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="3">
         <v>4629216</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="3">
         <v>136.1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Short term portion of long term borrowings</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
         <v>16</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2">
         <v>1257785</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="2">
         <v>1441185</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2">
         <v>7581929</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2">
         <v>9792637</v>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="3">
         <v>-2210708</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="3">
         <v>-22.6</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Trade payables</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2">
         <v>8</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2">
         <v>2587468</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2">
         <v>2964751</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="2">
         <v>15597256</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="2">
         <v>14931416</v>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H32" s="5">
         <v>665840</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="5">
         <v>4.5</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Related parties</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
         <v>8</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2">
         <v>198471</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="2">
         <v>227411</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="2">
         <v>1196384</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="2">
         <v>1554918</v>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="3">
         <v>-358534</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="3">
         <v>-23.1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Third parties</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
         <v>8</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2">
         <v>2388997</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2">
         <v>2737340</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="2">
         <v>14400872</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="2">
         <v>13376498</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="4">
         <v>1024374</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="4">
         <v>7.7</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2">
         <v>80838</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="2">
         <v>92625</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="2">
         <v>487291</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="2">
         <v>193805</v>
       </c>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="3">
         <v>293486</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="3">
         <v>151.4</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Current income tax liabilities</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="2">
         <v>17</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2">
         <v>32349</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2">
         <v>37066</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="2">
         <v>195000</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="2">
         <v>73704</v>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="3">
         <v>121296</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="3">
         <v>164.6</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Short term provisions</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
         <v>19</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2">
         <v>193481</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="2">
         <v>221693</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="2">
         <v>1166305</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="2">
         <v>1062480</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="4">
         <v>103825</v>
       </c>
-      <c r="I37" s="4" t="n">
+      <c r="I37" s="4">
         <v>9.800000000000001</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Other payables</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
         <v>20</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2">
         <v>546326</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="2">
         <v>625986</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="2">
         <v>3293252</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="2">
         <v>2864158</v>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="H38" s="3">
         <v>429094</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Other current liabilities</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
         <v>21</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2">
         <v>700599</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="2">
         <v>802754</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="2">
         <v>4223207</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="2">
         <v>3331095</v>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H39" s="3">
         <v>892112</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="3">
         <v>26.8</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="D40" t="n">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>6731245</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2">
         <v>7712739</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="2">
         <v>40575943</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="2">
         <v>35651782</v>
       </c>
-      <c r="H40" s="3" t="n">
+      <c r="H40" s="3">
         <v>4924161</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="3">
         <v>13.8</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Liabilities related to assets held for sale</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
         <v>23</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2">
         <v>417</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="2">
         <v>477</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="2">
         <v>2512</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="2">
         <v>2871</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" s="3">
         <v>-359</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="3">
         <v>-12.5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total current liabilities</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
         <v>6731662</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="2">
         <v>7713216</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="2">
         <v>40578455</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="2">
         <v>35654653</v>
       </c>
-      <c r="H42" s="3" t="n">
+      <c r="H42" s="3">
         <v>4923802</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="3">
         <v>13.8</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Long term borrowings</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
         <v>16</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2">
         <v>5673531</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="2">
         <v>6500797</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="2">
         <v>34200045</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="2">
         <v>23185745</v>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="H43" s="3">
         <v>11014300</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="3">
         <v>47.5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Derivative instruments</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
         <v>10</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2">
         <v>8203</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="2">
         <v>9400</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="2">
         <v>49450</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="2">
         <v>3364</v>
       </c>
-      <c r="H44" s="3" t="n">
+      <c r="H44" s="3">
         <v>46086</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="3">
         <v>1370</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Other payables</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2">
         <v>20</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2">
         <v>103193</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="2">
         <v>118240</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="2">
         <v>622050</v>
       </c>
-      <c r="H45" s="3" t="n"/>
-      <c r="I45" s="3" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Deferred tax liabilities</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2">
         <v>17</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2">
         <v>149772</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="2">
         <v>171611</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="2">
         <v>902826</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="2">
         <v>735331</v>
       </c>
-      <c r="H46" s="3" t="n">
+      <c r="H46" s="3">
         <v>167495</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="3">
         <v>22.8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Long term provisions</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
         <v>152617</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="2">
         <v>174871</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="2">
         <v>919978</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="2">
         <v>882171</v>
       </c>
-      <c r="H47" s="5" t="n">
+      <c r="H47" s="5">
         <v>37807</v>
       </c>
-      <c r="I47" s="5" t="n">
+      <c r="I47" s="5">
         <v>4.3</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Long term provisions for employee benefits</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2">
         <v>18</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2">
         <v>126760</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="2">
         <v>145243</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="2">
         <v>764110</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="2">
         <v>649036</v>
       </c>
-      <c r="H48" s="3" t="n">
+      <c r="H48" s="3">
         <v>115074</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="3">
         <v>17.7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Other long term provisions</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2">
         <v>19</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2">
         <v>25857</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="2">
         <v>29628</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="2">
         <v>155868</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="2">
         <v>233135</v>
       </c>
-      <c r="H49" s="3" t="n">
+      <c r="H49" s="3">
         <v>-77267</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="3">
         <v>-33.1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Other non-current liabilities</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2">
         <v>21</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2">
         <v>173302</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="2">
         <v>198572</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="2">
         <v>1044667</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="2">
         <v>672086</v>
       </c>
-      <c r="H50" s="3" t="n">
+      <c r="H50" s="3">
         <v>372581</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="3">
         <v>55.4</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total non-current liabilities</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
         <v>6260618</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="2">
         <v>7173491</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="2">
         <v>37739016</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="2">
         <v>25478697</v>
       </c>
-      <c r="H51" s="3" t="n">
+      <c r="H51" s="3">
         <v>12260319</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="3">
         <v>48.1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total liabilities</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
+      <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
         <v>12992280</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="2">
         <v>14886707</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="2">
         <v>78317471</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="2">
         <v>61133350</v>
       </c>
-      <c r="H52" s="3" t="n">
+      <c r="H52" s="3">
         <v>17184121</v>
       </c>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="3">
         <v>28.1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Paid-in share capital</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="2">
         <v>22</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2">
         <v>420686</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="2">
         <v>482027</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="2">
         <v>2535898</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="2">
         <v>2535898</v>
       </c>
-      <c r="H53" s="5" t="n">
+      <c r="H53" s="5">
         <v>0</v>
       </c>
-      <c r="I53" s="5" t="n">
+      <c r="I53" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Adjustment to share capital</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="2">
         <v>22</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2">
         <v>160466</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="2">
         <v>183864</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="2">
         <v>967288</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="2">
         <v>967288</v>
       </c>
-      <c r="H54" s="5" t="n">
+      <c r="H54" s="5">
         <v>0</v>
       </c>
-      <c r="I54" s="5" t="n">
+      <c r="I54" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Share premium</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
+      <c r="B55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
         <v>1540</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="2">
         <v>1765</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="2">
         <v>9286</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="2">
         <v>9286</v>
       </c>
-      <c r="H55" s="5" t="n">
+      <c r="H55" s="5">
         <v>0</v>
       </c>
-      <c r="I55" s="5" t="n">
+      <c r="I55" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Other comprehensive income/expense not to be reclassified to profit or loss</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="2">
         <v>22</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2">
         <v>37350</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="2">
         <v>42796</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="2">
         <v>225146</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="2">
         <v>163738</v>
       </c>
-      <c r="H56" s="3" t="n">
+      <c r="H56" s="3">
         <v>61408</v>
       </c>
-      <c r="I56" s="3" t="n">
+      <c r="I56" s="3">
         <v>37.5</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Other comprehensive income/expense to be reclassified to profit or loss</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="2">
         <v>22</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2">
         <v>46495</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="2">
         <v>53274</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="2">
         <v>280270</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="2">
         <v>98668</v>
       </c>
-      <c r="H57" s="3" t="n">
+      <c r="H57" s="3">
         <v>181602</v>
       </c>
-      <c r="I57" s="3" t="n">
+      <c r="I57" s="3">
         <v>184.1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Restricted reserves</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="2">
         <v>22</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2">
         <v>86889</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="2">
         <v>99558</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="2">
         <v>523765</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="2">
         <v>2602389</v>
       </c>
-      <c r="H58" s="3" t="n">
+      <c r="H58" s="3">
         <v>-2078624</v>
       </c>
-      <c r="I58" s="3" t="n">
+      <c r="I58" s="3">
         <v>-79.90000000000001</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Prior years’ income</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
+      <c r="B59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
         <v>4017321</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="2">
         <v>4603093</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="2">
         <v>24216413</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="2">
         <v>19211387</v>
       </c>
-      <c r="H59" s="3" t="n">
+      <c r="H59" s="3">
         <v>5005026</v>
       </c>
-      <c r="I59" s="3" t="n">
+      <c r="I59" s="3">
         <v>26.1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
+      <c r="B60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
         <v>918551</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="2">
         <v>1052487</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="2">
         <v>5537028</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="2">
         <v>4908740</v>
       </c>
-      <c r="H60" s="3" t="n">
+      <c r="H60" s="3">
         <v>628288</v>
       </c>
-      <c r="I60" s="3" t="n">
+      <c r="I60" s="3">
         <v>12.8</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Equity holders of the parent</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
+      <c r="B61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
         <v>5521608</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="2">
         <v>6326724</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="2">
         <v>33284262</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61" s="2">
         <v>29972582</v>
       </c>
-      <c r="H61" s="3" t="n">
+      <c r="H61" s="3">
         <v>3311680</v>
       </c>
-      <c r="I61" s="3" t="n">
+      <c r="I61" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Non-controlling interests</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
+      <c r="B62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
         <v>2268439</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="2">
         <v>2599203</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="2">
         <v>13674148</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62" s="2">
         <v>12958436</v>
       </c>
-      <c r="H62" s="4" t="n">
+      <c r="H62" s="4">
         <v>715712</v>
       </c>
-      <c r="I62" s="4" t="n">
+      <c r="I62" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total equity</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
+      <c r="B63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
         <v>7790047</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="2">
         <v>8925927</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="2">
         <v>46958410</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="2">
         <v>42931018</v>
       </c>
-      <c r="H63" s="4" t="n">
+      <c r="H63" s="4">
         <v>4027392</v>
       </c>
-      <c r="I63" s="4" t="n">
+      <c r="I63" s="4">
         <v>9.4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total liabilities and equity</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
+      <c r="B64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2">
         <v>20782327</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="2">
         <v>23812634</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="2">
         <v>125275881</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="2">
         <v>104064368</v>
       </c>
-      <c r="H64" s="3" t="n">
+      <c r="H64" s="3">
         <v>21211513</v>
       </c>
-      <c r="I64" s="3" t="n">
+      <c r="I64" s="3">
         <v>20.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="4.7109375"/>
-    <col customWidth="1" max="2" min="2" style="2" width="50.7109375"/>
-    <col customWidth="1" max="3" min="3" style="2" width="5.7109375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="8.7109375"/>
-    <col customWidth="1" max="5" min="5" style="2" width="8.7109375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="9.7109375"/>
-    <col customWidth="1" max="7" min="7" style="2" width="8.7109375"/>
-    <col customWidth="1" max="8" min="8" style="2" width="8.7109375"/>
-    <col customWidth="1" max="9" min="9" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2">
         <v>25159335</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>29598572</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>142469768</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>98272831</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>44196937</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Revenue from finance sector operations</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>137486</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>161744</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>778540</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2">
         <v>593918</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>184622</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>31.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total revenue</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>25296821</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>29760316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>143248308</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>98866749</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>44381559</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>44.9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>21235844</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>24982801</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>120252216</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>82173057</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>38079159</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>46.3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cost of finance sector operations</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>98416</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>115781</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>557302</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>416317</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>140985</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>33.9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total costs</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>21334260</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>25098582</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>120809518</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>82589374</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>38220144</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>46.3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gross profit non-finance</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>3923491</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>4615771</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>22217552</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>16099774</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>6117778</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gross profit finance</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>39070</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>45963</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>221238</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>177601</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>43637</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>24.6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gross profit</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>3962561</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>4661734</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>22438790</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>16277375</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>6161415</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>37.9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Marketing expenses</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2">
         <v>25</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>1184557</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>1393567</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>6707793</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>5347579</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>1360214</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>25.4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General administrative expenses</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2">
         <v>710489</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>835851</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>4023287</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>3229364</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>793923</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>24.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Research and development expenses</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2">
         <v>25</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>49664</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>58427</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>281234</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>234326</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>46908</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Other operating income</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2">
         <v>26</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2">
         <v>995477</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>1171124</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>5637086</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>2508489</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="3">
         <v>3128597</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>124.7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Other operating expenses</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2">
         <v>26</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2">
         <v>1284885</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2">
         <v>1511596</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2">
         <v>7275918</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2">
         <v>2239369</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="3">
         <v>5036549</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="3">
         <v>224.9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>the equity method</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>560826</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>659780</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>3175787</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2">
         <v>2691404</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>484383</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Operating profit</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2">
         <v>2289269</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2">
         <v>2693197</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2">
         <v>12963431</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2">
         <v>10426630</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="3">
         <v>2536801</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>24.3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gains from investment activities</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2">
         <v>27</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2">
         <v>62147</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>73112</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2">
         <v>351917</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2">
         <v>148192</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="3">
         <v>203725</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="3">
         <v>137.5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Losses from investment activities</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2">
         <v>27</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2">
         <v>34014</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>40016</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2">
         <v>192612</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2">
         <v>63549</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="3">
         <v>129063</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="3">
         <v>203.1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Operating profit before financial income/(expense)</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>2317402</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2">
         <v>2726293</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2">
         <v>13122736</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2">
         <v>10511273</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="3">
         <v>2611463</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>24.8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Financial income</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2">
         <v>28</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2">
         <v>2188432</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2">
         <v>2574570</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2">
         <v>12392436</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2">
         <v>6208953</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="3">
         <v>6183483</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="3">
         <v>99.59999999999999</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Financial expense</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2">
         <v>28</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2">
         <v>2971092</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2">
         <v>3495326</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2">
         <v>16824401</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2">
         <v>8061172</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="3">
         <v>8763229</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="3">
         <v>108.7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Profit before tax</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2">
         <v>1534742</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2">
         <v>1805537</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2">
         <v>8690771</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2">
         <v>8659054</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="5">
         <v>31717</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Tax income/(expense)</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
         <v>46917</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2">
         <v>55196</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2">
         <v>265678</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2">
         <v>761627</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="3">
         <v>-495949</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="3">
         <v>-65.09999999999999</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Current income tax expense</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2">
         <v>17</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2">
         <v>124801</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2">
         <v>146822</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2">
         <v>706712</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2">
         <v>788821</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="3">
         <v>-82109</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>-10.4</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Deferred tax income</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2">
         <v>17</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2">
         <v>77884</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2">
         <v>91626</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2">
         <v>441034</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2">
         <v>27194</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="3">
         <v>413840</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3">
         <v>1521.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>1487825</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2">
         <v>1750341</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2">
         <v>8425093</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2">
         <v>7897427</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="4">
         <v>527666</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="4">
         <v>6.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Non-controlling interests</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2">
         <v>510016</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2">
         <v>600005</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2">
         <v>2888065</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2">
         <v>2988687</v>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="5">
         <v>-100622</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="5">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Equity holders of the parent</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2">
         <v>977809</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2">
         <v>1150336</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2">
         <v>5537028</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2">
         <v>4908740</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="3">
         <v>628288</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="3">
         <v>12.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="4.7109375"/>
-    <col customWidth="1" max="2" min="2" style="2" width="83.7109375"/>
-    <col customWidth="1" max="3" min="3" style="2" width="5.7109375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="9.7109375"/>
-    <col customWidth="1" max="5" min="5" style="2" width="10.7109375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="10.7109375"/>
-    <col customWidth="1" max="7" min="7" style="2" width="10.7109375"/>
-    <col customWidth="1" max="8" min="8" style="2" width="9.7109375"/>
-    <col customWidth="1" max="9" min="9" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EUR-2018</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USD-2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2018</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TL-2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TL-Diff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Profit for the period</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>1487825</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>1750341</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>8425093</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2">
         <v>7897427</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>527666</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="4">
         <v>6.7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tax expenses</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2">
         <v>46917</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>55196</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>265678</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2">
         <v>761627</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>-495949</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>-65.09999999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Undistributed profits of investments accounted for using the equity method</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>560826</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>659780</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>3175787</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>2691404</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>484383</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortisation</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>373196</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>439044</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>2113296</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>1579490</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>533806</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>33.8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Adjustments for provisions</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>11688</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>13751</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>66188</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>181763</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>-115575</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>-63.6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Adjustments for impairment loss/(reversal of impairment loss)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2">
         <v>71849</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>84524</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>406851</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>76518</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>330333</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>431.7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Interest (income)/expenses, net</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>393225</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>462607</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>2226715</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>862882</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>1363833</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>158.1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fair value losses/(gains) on derivative instruments</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>867</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>1019</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>4907</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>159347</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>-154440</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>-96.90000000000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unrealised foreign exchange losses/(gains)</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>379158</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>446059</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>2147057</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>910978</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>1236079</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>135.7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Exchange (gains)/losses on borrowings, net</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>1344796</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>1582079</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>7615177</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>1950264</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>5664913</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>290.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Exchange (gains)/losses on cash and cash equivalents, net</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>965638</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>1136020</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>5468120</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>1039286</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>4428834</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>426.1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gain from bargain purchases</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>33189</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>39045</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>187941</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>2681</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>185260</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>6910.1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Losses/(gains) on disposal of non-current assets</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2">
         <v>27</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2">
         <v>9499</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>11175</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>53792</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>16979</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="3">
         <v>36813</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>216.8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Gain on sale of interest in a subsidiary</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2">
         <v>27</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2">
         <v>4861</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2">
         <v>5718</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2">
         <v>27525</v>
       </c>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Losses on disposal of financial assets</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2">
         <v>27</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2">
         <v>1446</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2">
         <v>1702</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2">
         <v>8191</v>
       </c>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Losses/(gains) on exchange transactions</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2">
         <v>27</v>
       </c>
-      <c r="G17" t="n">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>32099</v>
       </c>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="D18" t="n">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>2156062</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2">
         <v>2536487</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2">
         <v>12209117</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2">
         <v>9686869</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="3">
         <v>2522248</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Changes in working capital</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2">
         <v>36</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2">
         <v>1047832</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2">
         <v>1232714</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2">
         <v>5933546</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2">
         <v>4357202</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="3">
         <v>1576344</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="3">
         <v>36.2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Income taxes refund/(paid)</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>94341</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2">
         <v>110987</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2">
         <v>534224</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2">
         <v>864983</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="3">
         <v>-330759</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>-38.2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Dividend payments received from Joint Ventures, net</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2">
         <v>7</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2">
         <v>192259</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2">
         <v>226183</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2">
         <v>1088707</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2">
         <v>600957</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="3">
         <v>487750</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="3">
         <v>81.2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total cash flows from operating activities</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="B22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
         <v>1206148</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2">
         <v>1418969</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2">
         <v>6830054</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2">
         <v>5065641</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="3">
         <v>1764413</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="3">
         <v>34.8</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cash outflows from purchases of property, plant and equipment and intangible assets</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2">
         <v>1036765</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2">
         <v>1219697</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2">
         <v>5870888</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2">
         <v>4537854</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="3">
         <v>1333034</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="3">
         <v>29.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of property, plant and equipment and intangible assets</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
         <v>287220</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2">
         <v>337899</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2">
         <v>1626442</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2">
         <v>1263374</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="3">
         <v>363068</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="3">
         <v>28.7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Cash outflows from capital increases of Joint Ventures</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2">
         <v>7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2">
         <v>278914</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2">
         <v>328126</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2">
         <v>1579404</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2">
         <v>69395</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="3">
         <v>1510009</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>2176</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cash outflows from acquisition of interest/capital increase in financial assets</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <v>1645</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2">
         <v>1935</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2">
         <v>9314</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2">
         <v>13041</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="3">
         <v>-3727</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3">
         <v>-28.6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of interest/capital decrease in financial assets</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>2686</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2">
         <v>3160</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2">
         <v>15209</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2">
         <v>1250</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="3">
         <v>13959</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="3">
         <v>1116.7</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cash inflows from sale of interest in a subsidiary</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="B28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>2430</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2">
         <v>2859</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2">
         <v>13762</v>
       </c>
-      <c r="H28" s="3" t="n"/>
-      <c r="I28" s="3" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Other cash inflows/(outflows)</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>127188</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2">
         <v>149629</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2">
         <v>720225</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2">
         <v>76205</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="3">
         <v>644020</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="3">
         <v>845.1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Cash outflows due to business combinations, net 3,</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2">
         <v>20</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2">
         <v>127188</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2">
         <v>149629</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2">
         <v>720225</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2">
         <v>76205</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="3">
         <v>644020</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="3">
         <v>845.1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total cash flows from investing activities</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="B31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
         <v>1152176</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="2">
         <v>1355469</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2">
         <v>6524418</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2">
         <v>3431871</v>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="H31" s="3">
         <v>3092547</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="3">
         <v>90.09999999999999</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Dividends paid</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <v>599143</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2">
         <v>704859</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="2">
         <v>3392767</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="2">
         <v>2299013</v>
       </c>
-      <c r="H32" s="3" t="n">
+      <c r="H32" s="3">
         <v>1093754</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="3">
         <v>47.6</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Cash inflows from borrowings</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2">
         <v>16</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2">
         <v>9089186</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="2">
         <v>10692927</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="2">
         <v>51469336</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="2">
         <v>51859785</v>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H33" s="5">
         <v>-390449</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="5">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Cash outflows from repayments of borrowings</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2">
         <v>16</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2">
         <v>8618714</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2">
         <v>10139444</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="2">
         <v>48805196</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="2">
         <v>47781349</v>
       </c>
-      <c r="H34" s="5" t="n">
+      <c r="H34" s="5">
         <v>1023847</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="5">
         <v>2.1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cash inflows/(outflows) from derivative instruments, net</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="B35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>18858</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="2">
         <v>22185</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="2">
         <v>106786</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="2">
         <v>58753</v>
       </c>
-      <c r="H35" s="3" t="n">
+      <c r="H35" s="3">
         <v>48033</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="3">
         <v>81.8</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Interest paid</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+      <c r="B36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
         <v>566381</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2">
         <v>666315</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="2">
         <v>3207243</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="2">
         <v>1986629</v>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="3">
         <v>1220614</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="3">
         <v>61.4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Interest received</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+      <c r="B37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
         <v>259551</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="2">
         <v>305348</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="2">
         <v>1469761</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="2">
         <v>1135302</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="3">
         <v>334459</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="3">
         <v>29.5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Other cash inflows/(outflows)</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="B38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
         <v>24733</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="2">
         <v>29097</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="2">
         <v>140053</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="2">
         <v>2588</v>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="H38" s="3">
         <v>137465</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="3">
         <v>5311.6</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Transactions with non-controlling interests</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="B39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
         <v>13076</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="2">
         <v>15383</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="2">
         <v>74044</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="2">
         <v>2588</v>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H39" s="3">
         <v>71456</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="3">
         <v>2761.1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Contribution of non-controlling interests to capital increases</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="B40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>11657</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2">
         <v>13714</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="2">
         <v>66009</v>
       </c>
-      <c r="H40" s="3" t="n"/>
-      <c r="I40" s="3" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total cash flows from financing activities</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
         <v>391910</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="2">
         <v>461061</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="2">
         <v>2219270</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="2">
         <v>984261</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" s="3">
         <v>1235009</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="3">
         <v>125.5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Effect of exchange rate changes on cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
         <v>965638</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="2">
         <v>1136020</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="2">
         <v>5468120</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="2">
         <v>1039286</v>
       </c>
-      <c r="H42" s="3" t="n">
+      <c r="H42" s="3">
         <v>4428834</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="3">
         <v>426.1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Net increase/(decrease) in cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
         <v>627700</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="2">
         <v>738459</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="2">
         <v>3554486</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="2">
         <v>3657317</v>
       </c>
-      <c r="H43" s="5" t="n">
+      <c r="H43" s="5">
         <v>-102831</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="5">
         <v>-2.8</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at the beginning of the period</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+      <c r="B44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
         <v>3470469</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="2">
         <v>4082816</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="2">
         <v>19652226</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="2">
         <v>15994909</v>
       </c>
-      <c r="H44" s="3" t="n">
+      <c r="H44" s="3">
         <v>3657317</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="3">
         <v>22.9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at the end of the period</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="2">
         <v>36</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2">
         <v>4098169</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="2">
         <v>4821275</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="2">
         <v>23206712</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="2">
         <v>19652226</v>
       </c>
-      <c r="H45" s="3" t="n">
+      <c r="H45" s="3">
         <v>3554486</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="3">
         <v>18.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>